--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="25515" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28005" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Session" sheetId="1" state="visible" r:id="rId1"/>
@@ -77,21 +77,14 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF006400"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
+      <color rgb="FF006400"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -106,22 +99,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -143,6 +121,20 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <b val="1"/>
       <color rgb="FFFFFFFF"/>
       <sz val="11"/>
@@ -150,22 +142,29 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
       <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -197,6 +196,13 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -213,27 +219,21 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <color rgb="00006400"/>
+      <color rgb="00000000"/>
     </font>
   </fonts>
   <fills count="33">
@@ -245,30 +245,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -276,6 +252,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +287,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,13 +341,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,67 +413,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,37 +425,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,17 +463,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,8 +475,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,25 +497,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,16 +521,31 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +555,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -567,16 +567,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
@@ -585,115 +585,115 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -721,33 +721,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1068,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1183,11 +1183,7 @@
           <t>{"code": 200,"field_1": "sessionId","field_2": "sessionExpiry"}</t>
         </is>
       </c>
-      <c r="J2" s="24" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J2" s="24" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="n">
@@ -1224,11 +1220,7 @@
           <t>{"code": 200,"field_1": "sessionId","field_2": "sessionExpiry"}</t>
         </is>
       </c>
-      <c r="J3" s="24" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J3" s="24" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="n">
@@ -1265,11 +1257,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J4" s="24" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="n">
@@ -1306,11 +1294,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J5" s="24" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="n">
@@ -1338,7 +1322,7 @@
       </c>
       <c r="F6" s="5" t="inlineStr">
         <is>
-          <t>vNext2/api/#version#/session/#seesionId#/</t>
+          <t>vNext2/api/#version#/session/#sessionId#/</t>
         </is>
       </c>
       <c r="G6" s="5" t="n"/>
@@ -1347,11 +1331,7 @@
           <t>{"code": 204}</t>
         </is>
       </c>
-      <c r="J6" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J6" s="24" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
@@ -1388,11 +1368,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="J7" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="J7" s="24" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="n">
@@ -1429,11 +1405,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="J8" s="23" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="J8" s="24" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="n">
@@ -1461,7 +1433,7 @@
       </c>
       <c r="F9" s="5" t="inlineStr">
         <is>
-          <t>vNext2/api/#version#/session/#seesionId#/</t>
+          <t>vNext2/api/#version#/session/#sessionId#/</t>
         </is>
       </c>
       <c r="G9" s="5" t="n"/>
@@ -1470,11 +1442,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J9" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J9" s="24" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="n">
@@ -1502,7 +1470,7 @@
       </c>
       <c r="F10" s="5" t="inlineStr">
         <is>
-          <t>vNext2/api/#version#/session/#seesionId#/</t>
+          <t>vNext2/api/#version#/session/#sessionId#/</t>
         </is>
       </c>
       <c r="G10" s="5" t="n"/>
@@ -1511,11 +1479,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J10" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J10" s="24" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1537,44 +1501,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25"/>
   <cols>
-    <col width="8.883333333333329" customWidth="1" style="19" min="1" max="3"/>
-    <col width="16.8833333333333" customWidth="1" style="19" min="4" max="4"/>
-    <col width="7.5" customWidth="1" style="19" min="5" max="5"/>
-    <col width="25.375" customWidth="1" style="19" min="6" max="6"/>
-    <col width="32.75" customWidth="1" style="19" min="7" max="7"/>
-    <col width="5.125" customWidth="1" style="19" min="8" max="8"/>
-    <col width="54" customWidth="1" style="19" min="9" max="9"/>
-    <col width="8.883333333333329" customWidth="1" style="19" min="10" max="11"/>
+    <col width="8.883333333333329" customWidth="1" style="21" min="1" max="3"/>
+    <col width="16.8833333333333" customWidth="1" style="21" min="4" max="4"/>
+    <col width="7.5" customWidth="1" style="21" min="5" max="5"/>
+    <col width="25.375" customWidth="1" style="21" min="6" max="6"/>
+    <col width="32.75" customWidth="1" style="21" min="7" max="7"/>
+    <col width="5.125" customWidth="1" style="21" min="8" max="8"/>
+    <col width="54" customWidth="1" style="21" min="9" max="9"/>
+    <col width="8.883333333333329" customWidth="1" style="21" min="10" max="11"/>
     <col width="8.883333333333329" customWidth="1" style="7" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="18">
-      <c r="A1" s="18" t="inlineStr">
+    <row r="1" customFormat="1" s="20">
+      <c r="A1" s="20" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="18" t="inlineStr">
+      <c r="B1" s="20" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="18" t="inlineStr">
+      <c r="C1" s="20" t="inlineStr">
         <is>
           <t>flow</t>
         </is>
       </c>
-      <c r="D1" s="18" t="inlineStr">
+      <c r="D1" s="20" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="18" t="inlineStr">
+      <c r="E1" s="20" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="18" t="inlineStr">
+      <c r="F1" s="20" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -1584,17 +1548,17 @@
           <t>params</t>
         </is>
       </c>
-      <c r="H1" s="18" t="inlineStr">
+      <c r="H1" s="20" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="18" t="inlineStr">
+      <c r="I1" s="20" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="18" t="inlineStr">
+      <c r="J1" s="20" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1606,10 +1570,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="n">
+      <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="inlineStr">
+      <c r="B2" s="21" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1619,17 +1583,17 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D2" s="14" t="inlineStr">
+      <c r="D2" s="13" t="inlineStr">
         <is>
           <t>成功获取Token</t>
         </is>
       </c>
-      <c r="E2" s="19" t="inlineStr">
+      <c r="E2" s="21" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1644,17 +1608,17 @@
           <t>{"code": 200,"field_1": "accessToken","field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="J2" s="20" t="inlineStr">
+      <c r="J2" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="n">
+      <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="inlineStr">
+      <c r="B3" s="21" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1664,17 +1628,17 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D3" s="14" t="inlineStr">
+      <c r="D3" s="13" t="inlineStr">
         <is>
           <t>不传User id</t>
         </is>
       </c>
-      <c r="E3" s="19" t="inlineStr">
+      <c r="E3" s="21" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1685,17 +1649,17 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J3" s="20" t="inlineStr">
+      <c r="J3" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="n">
+      <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="inlineStr">
+      <c r="B4" s="21" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1705,17 +1669,17 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D4" s="14" t="inlineStr">
+      <c r="D4" s="13" t="inlineStr">
         <is>
           <t>不存在的User id</t>
         </is>
       </c>
-      <c r="E4" s="19" t="inlineStr">
+      <c r="E4" s="21" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1730,17 +1694,17 @@
           <t>{"code": 200,"field_1": "accessToken","field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="J4" s="20" t="inlineStr">
+      <c r="J4" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="n">
+      <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="inlineStr">
+      <c r="B5" s="21" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1750,17 +1714,17 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" s="13" t="inlineStr">
         <is>
           <t>错误的Akey</t>
         </is>
       </c>
-      <c r="E5" s="19" t="inlineStr">
+      <c r="E5" s="21" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1770,17 +1734,17 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J5" s="20" t="inlineStr">
+      <c r="J5" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="n">
+      <c r="A6" s="21" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="19" t="inlineStr">
+      <c r="B6" s="21" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1790,17 +1754,17 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D6" s="14" t="inlineStr">
+      <c r="D6" s="13" t="inlineStr">
         <is>
           <t>缺少AKey</t>
         </is>
       </c>
-      <c r="E6" s="19" t="inlineStr">
+      <c r="E6" s="21" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1810,15 +1774,15 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J6" s="20" t="inlineStr">
+      <c r="J6" s="22" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" s="14" t="n"/>
-      <c r="J9" s="21" t="n"/>
+      <c r="F9" s="13" t="n"/>
+      <c r="J9" s="23" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1837,8 +1801,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
@@ -1848,10 +1812,10 @@
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="31.625" customWidth="1" min="4" max="4"/>
     <col width="8.33333333333333" customWidth="1" style="10" min="5" max="5"/>
-    <col width="59.625" customWidth="1" min="6" max="6"/>
-    <col width="48.625" customWidth="1" style="11" min="7" max="7"/>
+    <col width="56.25" customWidth="1" min="6" max="6"/>
+    <col width="41" customWidth="1" style="11" min="7" max="7"/>
     <col width="5.125" customWidth="1" min="8" max="8"/>
-    <col width="54" customWidth="1" min="9" max="9"/>
+    <col width="39" customWidth="1" min="9" max="9"/>
     <col width="6.33333333333333" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
@@ -1926,7 +1890,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D2" s="13" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>正常获取会员信息</t>
         </is>
@@ -1936,17 +1900,17 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F2" s="14" t="inlineStr">
+      <c r="F2" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="G2" s="15" t="inlineStr">
+      <c r="G2" s="14" t="inlineStr">
         <is>
           <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#membershipCardNumber#"}</t>
         </is>
       </c>
-      <c r="H2" s="13" t="n"/>
+      <c r="H2" s="15" t="n"/>
       <c r="I2" s="17" t="inlineStr">
         <is>
           <t>{"code": 200,"number": "#number#","firstName": "#firstName#","lastName":"#lastName#"}</t>
@@ -1958,7 +1922,7 @@
         </is>
       </c>
     </row>
-    <row r="3" ht="14.4" customHeight="1">
+    <row r="3" ht="42.75" customHeight="1">
       <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
@@ -1969,10 +1933,10 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>abnormal</t>
-        </is>
-      </c>
-      <c r="D3" s="13" t="inlineStr">
+          <t>skip</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>错误的companyName</t>
         </is>
@@ -1982,15 +1946,29 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F3" s="14" t="inlineStr">
+      <c r="F3" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#errorCompanyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H3" s="13" t="n"/>
-      <c r="J3" s="5" t="n"/>
-    </row>
-    <row r="4" ht="14.4" customHeight="1">
+      <c r="G3" s="14" t="inlineStr">
+        <is>
+          <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#membershipCardNumber#"}</t>
+        </is>
+      </c>
+      <c r="H3" s="15" t="n"/>
+      <c r="I3" s="17" t="inlineStr">
+        <is>
+          <t>{"code": 200,"matchCount":0,"members": []}</t>
+        </is>
+      </c>
+      <c r="J3" s="18" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="42.75" customHeight="1">
       <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
@@ -2004,7 +1982,7 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D4" s="13" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>缺少companyName</t>
         </is>
@@ -2014,13 +1992,27 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F4" s="14" t="inlineStr">
+      <c r="F4" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H4" s="13" t="n"/>
-      <c r="J4" s="5" t="n"/>
+      <c r="G4" s="14" t="inlineStr">
+        <is>
+          <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#membershipCardNumber#"}</t>
+        </is>
+      </c>
+      <c r="H4" s="15" t="n"/>
+      <c r="I4" s="17" t="inlineStr">
+        <is>
+          <t>{"code": 404}</t>
+        </is>
+      </c>
+      <c r="J4" s="19" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -2036,7 +2028,7 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D5" s="14" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>错误的Akey</t>
         </is>
@@ -2046,12 +2038,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F5" s="14" t="inlineStr">
+      <c r="F5" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H5" s="13" t="n"/>
+      <c r="H5" s="15" t="n"/>
       <c r="J5" s="5" t="n"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
@@ -2078,12 +2070,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F6" s="14" t="inlineStr">
+      <c r="F6" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H6" s="13" t="n"/>
+      <c r="H6" s="15" t="n"/>
       <c r="J6" s="5" t="n"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
@@ -2110,12 +2102,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F7" s="14" t="inlineStr">
+      <c r="F7" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H7" s="13" t="n"/>
+      <c r="H7" s="15" t="n"/>
       <c r="J7" s="5" t="n"/>
     </row>
     <row r="8" ht="14.4" customFormat="1" customHeight="1" s="7">
@@ -2142,13 +2134,13 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F8" s="14" t="inlineStr">
+      <c r="F8" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
       <c r="G8" s="16" t="n"/>
-      <c r="H8" s="13" t="n"/>
+      <c r="H8" s="15" t="n"/>
       <c r="J8" s="9" t="n"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
@@ -2175,12 +2167,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F9" s="14" t="inlineStr">
+      <c r="F9" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H9" s="13" t="n"/>
+      <c r="H9" s="15" t="n"/>
       <c r="J9" s="5" t="n"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
@@ -2207,12 +2199,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F10" s="14" t="inlineStr">
+      <c r="F10" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H10" s="13" t="n"/>
+      <c r="H10" s="15" t="n"/>
       <c r="J10" s="5" t="n"/>
     </row>
     <row r="11" ht="14.4" customHeight="1">
@@ -2229,7 +2221,7 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D11" s="14" t="inlineStr">
+      <c r="D11" s="13" t="inlineStr">
         <is>
           <t>错误的Akey</t>
         </is>
@@ -2239,12 +2231,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F11" s="14" t="inlineStr">
+      <c r="F11" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H11" s="13" t="n"/>
+      <c r="H11" s="15" t="n"/>
       <c r="J11" s="5" t="n"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
@@ -2261,7 +2253,7 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D12" s="14" t="inlineStr">
+      <c r="D12" s="13" t="inlineStr">
         <is>
           <t>缺少AKey</t>
         </is>
@@ -2271,12 +2263,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F12" s="14" t="inlineStr">
+      <c r="F12" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H12" s="13" t="n"/>
+      <c r="H12" s="15" t="n"/>
       <c r="J12" s="5" t="n"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
@@ -2293,7 +2285,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D13" s="13" t="inlineStr">
+      <c r="D13" s="15" t="inlineStr">
         <is>
           <t>通过会员卡号查询</t>
         </is>
@@ -2303,12 +2295,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F13" s="14" t="inlineStr">
+      <c r="F13" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H13" s="13" t="n"/>
+      <c r="H13" s="15" t="n"/>
       <c r="J13" s="9" t="n"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
@@ -2325,7 +2317,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D14" s="13" t="inlineStr">
+      <c r="D14" s="15" t="inlineStr">
         <is>
           <t>通过邮箱地址查询</t>
         </is>
@@ -2335,12 +2327,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F14" s="14" t="inlineStr">
+      <c r="F14" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H14" s="13" t="n"/>
+      <c r="H14" s="15" t="n"/>
       <c r="J14" s="5" t="n"/>
     </row>
     <row r="15" ht="14.4" customFormat="1" customHeight="1" s="7">
@@ -2357,7 +2349,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D15" s="13" t="inlineStr">
+      <c r="D15" s="15" t="inlineStr">
         <is>
           <t>通过会员名查询</t>
         </is>
@@ -2367,13 +2359,13 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F15" s="14" t="inlineStr">
+      <c r="F15" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
       <c r="G15" s="16" t="n"/>
-      <c r="H15" s="13" t="n"/>
+      <c r="H15" s="15" t="n"/>
       <c r="J15" s="9" t="n"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
@@ -2390,7 +2382,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D16" s="13" t="inlineStr">
+      <c r="D16" s="15" t="inlineStr">
         <is>
           <t>通过会员姓查询</t>
         </is>
@@ -2400,12 +2392,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F16" s="14" t="inlineStr">
+      <c r="F16" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H16" s="13" t="n"/>
+      <c r="H16" s="15" t="n"/>
       <c r="J16" s="5" t="n"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
@@ -2422,7 +2414,7 @@
           <t>normal</t>
         </is>
       </c>
-      <c r="D17" s="13" t="inlineStr">
+      <c r="D17" s="15" t="inlineStr">
         <is>
           <t>通过会员手机号查询</t>
         </is>
@@ -2432,12 +2424,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F17" s="14" t="inlineStr">
+      <c r="F17" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H17" s="13" t="n"/>
+      <c r="H17" s="15" t="n"/>
       <c r="J17" s="5" t="n"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
@@ -2454,7 +2446,7 @@
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D18" s="13" t="inlineStr">
+      <c r="D18" s="15" t="inlineStr">
         <is>
           <t>查询不存在的会员卡号</t>
         </is>
@@ -2464,12 +2456,12 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F18" s="14" t="inlineStr">
+      <c r="F18" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
-      <c r="H18" s="13" t="n"/>
+      <c r="H18" s="15" t="n"/>
       <c r="J18" s="5" t="n"/>
     </row>
     <row r="19">
@@ -2496,7 +2488,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F19" s="14" t="inlineStr">
+      <c r="F19" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2526,7 +2518,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F20" s="14" t="inlineStr">
+      <c r="F20" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2556,7 +2548,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F21" s="14" t="inlineStr">
+      <c r="F21" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2586,7 +2578,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F22" s="14" t="inlineStr">
+      <c r="F22" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2616,7 +2608,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F23" s="14" t="inlineStr">
+      <c r="F23" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2646,7 +2638,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F24" s="14" t="inlineStr">
+      <c r="F24" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2676,7 +2668,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F25" s="14" t="inlineStr">
+      <c r="F25" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2706,7 +2698,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F26" s="14" t="inlineStr">
+      <c r="F26" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2736,7 +2728,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F27" s="14" t="inlineStr">
+      <c r="F27" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2766,7 +2758,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F28" s="14" t="inlineStr">
+      <c r="F28" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2796,7 +2788,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F29" s="14" t="inlineStr">
+      <c r="F29" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2826,7 +2818,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F30" s="14" t="inlineStr">
+      <c r="F30" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
@@ -2856,7 +2848,7 @@
           <t>get</t>
         </is>
       </c>
-      <c r="F31" s="14" t="inlineStr">
+      <c r="F31" s="13" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28005" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28005" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Session" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -77,13 +77,6 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
       <color rgb="FF006400"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -92,7 +85,7 @@
       <name val="等线"/>
       <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -105,38 +98,17 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <b val="1"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -150,7 +122,30 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -164,8 +159,7 @@
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -174,23 +168,14 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="11"/>
+      <sz val="15"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <color rgb="FF0000FF"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,22 +183,6 @@
       <charset val="0"/>
       <color rgb="FF006100"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,7 +198,31 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <u val="single"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,7 +238,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,25 +292,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,7 +358,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,127 +406,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,50 +445,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -511,11 +460,44 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,17 +517,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,10 +548,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -567,137 +560,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="6" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -734,21 +727,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1068,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1183,7 +1175,7 @@
           <t>{"code": 200,"field_1": "sessionId","field_2": "sessionExpiry"}</t>
         </is>
       </c>
-      <c r="J2" s="24" t="inlineStr"/>
+      <c r="J2" s="23" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="10" t="n">
@@ -1220,7 +1212,7 @@
           <t>{"code": 200,"field_1": "sessionId","field_2": "sessionExpiry"}</t>
         </is>
       </c>
-      <c r="J3" s="24" t="inlineStr"/>
+      <c r="J3" s="23" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="10" t="n">
@@ -1257,7 +1249,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J4" s="24" t="inlineStr"/>
+      <c r="J4" s="23" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="10" t="n">
@@ -1294,7 +1286,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J5" s="24" t="inlineStr"/>
+      <c r="J5" s="23" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="10" t="n">
@@ -1331,7 +1323,7 @@
           <t>{"code": 204}</t>
         </is>
       </c>
-      <c r="J6" s="24" t="inlineStr"/>
+      <c r="J6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
@@ -1368,7 +1360,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="J7" s="24" t="inlineStr"/>
+      <c r="J7" s="23" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="10" t="n">
@@ -1405,7 +1397,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="J8" s="24" t="inlineStr"/>
+      <c r="J8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="10" t="n">
@@ -1442,7 +1434,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J9" s="24" t="inlineStr"/>
+      <c r="J9" s="23" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="10" t="n">
@@ -1479,7 +1471,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J10" s="24" t="inlineStr"/>
+      <c r="J10" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1501,44 +1493,44 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25"/>
   <cols>
-    <col width="8.883333333333329" customWidth="1" style="21" min="1" max="3"/>
-    <col width="16.8833333333333" customWidth="1" style="21" min="4" max="4"/>
-    <col width="7.5" customWidth="1" style="21" min="5" max="5"/>
-    <col width="25.375" customWidth="1" style="21" min="6" max="6"/>
-    <col width="32.75" customWidth="1" style="21" min="7" max="7"/>
-    <col width="5.125" customWidth="1" style="21" min="8" max="8"/>
-    <col width="54" customWidth="1" style="21" min="9" max="9"/>
-    <col width="8.883333333333329" customWidth="1" style="21" min="10" max="11"/>
+    <col width="8.883333333333329" customWidth="1" style="19" min="1" max="3"/>
+    <col width="16.8833333333333" customWidth="1" style="19" min="4" max="4"/>
+    <col width="7.5" customWidth="1" style="19" min="5" max="5"/>
+    <col width="25.375" customWidth="1" style="19" min="6" max="6"/>
+    <col width="32.75" customWidth="1" style="19" min="7" max="7"/>
+    <col width="5.125" customWidth="1" style="19" min="8" max="8"/>
+    <col width="54" customWidth="1" style="19" min="9" max="9"/>
+    <col width="8.883333333333329" customWidth="1" style="19" min="10" max="11"/>
     <col width="8.883333333333329" customWidth="1" style="7" min="12" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="20">
-      <c r="A1" s="20" t="inlineStr">
+    <row r="1" customFormat="1" s="18">
+      <c r="A1" s="18" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="20" t="inlineStr">
+      <c r="B1" s="18" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="20" t="inlineStr">
+      <c r="C1" s="18" t="inlineStr">
         <is>
           <t>flow</t>
         </is>
       </c>
-      <c r="D1" s="20" t="inlineStr">
+      <c r="D1" s="18" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="20" t="inlineStr">
+      <c r="E1" s="18" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="20" t="inlineStr">
+      <c r="F1" s="18" t="inlineStr">
         <is>
           <t>url</t>
         </is>
@@ -1548,17 +1540,17 @@
           <t>params</t>
         </is>
       </c>
-      <c r="H1" s="20" t="inlineStr">
+      <c r="H1" s="18" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="I1" s="20" t="inlineStr">
+      <c r="I1" s="18" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="J1" s="20" t="inlineStr">
+      <c r="J1" s="18" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1570,10 +1562,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="19" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="inlineStr">
+      <c r="B2" s="19" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1588,7 +1580,7 @@
           <t>成功获取Token</t>
         </is>
       </c>
-      <c r="E2" s="21" t="inlineStr">
+      <c r="E2" s="19" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -1608,17 +1600,13 @@
           <t>{"code": 200,"field_1": "accessToken","field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="J2" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J2" s="22" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="inlineStr">
+      <c r="B3" s="19" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1633,7 +1621,7 @@
           <t>不传User id</t>
         </is>
       </c>
-      <c r="E3" s="21" t="inlineStr">
+      <c r="E3" s="19" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -1649,17 +1637,13 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J3" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J3" s="22" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="inlineStr">
+      <c r="B4" s="19" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1674,7 +1658,7 @@
           <t>不存在的User id</t>
         </is>
       </c>
-      <c r="E4" s="21" t="inlineStr">
+      <c r="E4" s="19" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -1694,17 +1678,13 @@
           <t>{"code": 200,"field_1": "accessToken","field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="J4" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J4" s="22" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="inlineStr">
+      <c r="B5" s="19" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1719,7 +1699,7 @@
           <t>错误的Akey</t>
         </is>
       </c>
-      <c r="E5" s="21" t="inlineStr">
+      <c r="E5" s="19" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -1734,17 +1714,13 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J5" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J5" s="22" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="inlineStr">
+      <c r="B6" s="19" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
@@ -1759,7 +1735,7 @@
           <t>缺少AKey</t>
         </is>
       </c>
-      <c r="E6" s="21" t="inlineStr">
+      <c r="E6" s="19" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
@@ -1774,15 +1750,17 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J6" s="22" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J6" s="22" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="J7" s="23" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="J8" s="23" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="F9" s="13" t="n"/>
-      <c r="J9" s="23" t="n"/>
+      <c r="J9" s="22" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1801,8 +1779,8 @@
   </sheetPr>
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
@@ -1916,11 +1894,7 @@
           <t>{"code": 200,"number": "#number#","firstName": "#firstName#","lastName":"#lastName#"}</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J2" s="23" t="inlineStr"/>
     </row>
     <row r="3" ht="42.75" customHeight="1">
       <c r="A3" s="10" t="n">
@@ -1962,11 +1936,7 @@
           <t>{"code": 200,"matchCount":0,"members": []}</t>
         </is>
       </c>
-      <c r="J3" s="18" t="inlineStr">
-        <is>
-          <t>Fail</t>
-        </is>
-      </c>
+      <c r="J3" s="23" t="inlineStr"/>
     </row>
     <row r="4" ht="42.75" customHeight="1">
       <c r="A4" s="10" t="n">
@@ -2008,11 +1978,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="J4" s="19" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J4" s="23" t="inlineStr"/>
     </row>
     <row r="5" ht="14.4" customHeight="1">
       <c r="A5" s="10" t="n">
@@ -2044,7 +2010,7 @@
         </is>
       </c>
       <c r="H5" s="15" t="n"/>
-      <c r="J5" s="5" t="n"/>
+      <c r="J5" s="23" t="inlineStr"/>
     </row>
     <row r="6" ht="14.4" customHeight="1">
       <c r="A6" s="10" t="n">
@@ -2076,7 +2042,7 @@
         </is>
       </c>
       <c r="H6" s="15" t="n"/>
-      <c r="J6" s="5" t="n"/>
+      <c r="J6" s="23" t="inlineStr"/>
     </row>
     <row r="7" ht="14.4" customHeight="1">
       <c r="A7" s="10" t="n">
@@ -2108,7 +2074,7 @@
         </is>
       </c>
       <c r="H7" s="15" t="n"/>
-      <c r="J7" s="5" t="n"/>
+      <c r="J7" s="23" t="inlineStr"/>
     </row>
     <row r="8" ht="14.4" customFormat="1" customHeight="1" s="7">
       <c r="A8" s="10" t="n">
@@ -2141,7 +2107,7 @@
       </c>
       <c r="G8" s="16" t="n"/>
       <c r="H8" s="15" t="n"/>
-      <c r="J8" s="9" t="n"/>
+      <c r="J8" s="23" t="inlineStr"/>
     </row>
     <row r="9" ht="14.4" customHeight="1">
       <c r="A9" s="10" t="n">
@@ -2173,7 +2139,7 @@
         </is>
       </c>
       <c r="H9" s="15" t="n"/>
-      <c r="J9" s="5" t="n"/>
+      <c r="J9" s="23" t="inlineStr"/>
     </row>
     <row r="10" ht="14.4" customHeight="1">
       <c r="A10" s="10" t="n">
@@ -2205,7 +2171,7 @@
         </is>
       </c>
       <c r="H10" s="15" t="n"/>
-      <c r="J10" s="5" t="n"/>
+      <c r="J10" s="23" t="inlineStr"/>
     </row>
     <row r="11" ht="14.4" customHeight="1">
       <c r="A11" s="10" t="n">
@@ -2237,7 +2203,7 @@
         </is>
       </c>
       <c r="H11" s="15" t="n"/>
-      <c r="J11" s="5" t="n"/>
+      <c r="J11" s="23" t="inlineStr"/>
     </row>
     <row r="12" ht="14.4" customHeight="1">
       <c r="A12" s="10" t="n">
@@ -2269,7 +2235,7 @@
         </is>
       </c>
       <c r="H12" s="15" t="n"/>
-      <c r="J12" s="5" t="n"/>
+      <c r="J12" s="23" t="inlineStr"/>
     </row>
     <row r="13" ht="14.4" customHeight="1">
       <c r="A13" s="10" t="n">
@@ -2301,7 +2267,7 @@
         </is>
       </c>
       <c r="H13" s="15" t="n"/>
-      <c r="J13" s="9" t="n"/>
+      <c r="J13" s="23" t="inlineStr"/>
     </row>
     <row r="14" ht="14.4" customHeight="1">
       <c r="A14" s="10" t="n">
@@ -2333,7 +2299,7 @@
         </is>
       </c>
       <c r="H14" s="15" t="n"/>
-      <c r="J14" s="5" t="n"/>
+      <c r="J14" s="23" t="inlineStr"/>
     </row>
     <row r="15" ht="14.4" customFormat="1" customHeight="1" s="7">
       <c r="A15" s="10" t="n">
@@ -2366,7 +2332,7 @@
       </c>
       <c r="G15" s="16" t="n"/>
       <c r="H15" s="15" t="n"/>
-      <c r="J15" s="9" t="n"/>
+      <c r="J15" s="23" t="inlineStr"/>
     </row>
     <row r="16" ht="14.4" customHeight="1">
       <c r="A16" s="10" t="n">
@@ -2398,7 +2364,7 @@
         </is>
       </c>
       <c r="H16" s="15" t="n"/>
-      <c r="J16" s="5" t="n"/>
+      <c r="J16" s="23" t="inlineStr"/>
     </row>
     <row r="17" ht="14.4" customHeight="1">
       <c r="A17" s="10" t="n">
@@ -2430,7 +2396,7 @@
         </is>
       </c>
       <c r="H17" s="15" t="n"/>
-      <c r="J17" s="5" t="n"/>
+      <c r="J17" s="23" t="inlineStr"/>
     </row>
     <row r="18" ht="14.4" customHeight="1">
       <c r="A18" s="10" t="n">
@@ -2462,7 +2428,7 @@
         </is>
       </c>
       <c r="H18" s="15" t="n"/>
-      <c r="J18" s="5" t="n"/>
+      <c r="J18" s="23" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="10" t="n">
@@ -2493,6 +2459,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J19" s="23" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="10" t="n">
@@ -2523,6 +2490,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J20" s="23" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="10" t="n">
@@ -2553,6 +2521,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J21" s="23" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="10" t="n">
@@ -2583,6 +2552,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J22" s="23" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="10" t="n">
@@ -2613,6 +2583,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J23" s="23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="10" t="n">
@@ -2643,6 +2614,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J24" s="23" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="10" t="n">
@@ -2673,6 +2645,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J25" s="23" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="10" t="n">
@@ -2703,6 +2676,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J26" s="23" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="10" t="n">
@@ -2733,6 +2707,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J27" s="23" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="10" t="n">
@@ -2763,6 +2738,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J28" s="23" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="10" t="n">
@@ -2793,6 +2769,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J29" s="23" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="10" t="n">
@@ -2823,6 +2800,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J30" s="23" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="10" t="n">
@@ -2853,6 +2831,7 @@
           <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
         </is>
       </c>
+      <c r="J31" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -227,6 +227,12 @@
     </font>
     <font>
       <color rgb="00000000"/>
+    </font>
+    <font>
+      <color rgb="00006400"/>
+    </font>
+    <font>
+      <color rgb="00FF0000"/>
     </font>
   </fonts>
   <fills count="33">
@@ -690,7 +696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -741,6 +747,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1064,7 +1072,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" style="10" min="1" max="1"/>
     <col width="12.75" customWidth="1" style="10" min="2" max="2"/>
@@ -1471,7 +1479,11 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J10" s="23" t="inlineStr"/>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1491,7 +1503,7 @@
       <selection activeCell="C5" sqref="C5:D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="8.883333333333329" customWidth="1" style="19" min="1" max="3"/>
     <col width="16.8833333333333" customWidth="1" style="19" min="4" max="4"/>
@@ -1764,7 +1776,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" display="interface" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" display="interface" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" display="interface" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -1783,7 +1796,7 @@
       <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" style="10" min="1" max="1"/>
     <col width="9.125" customWidth="1" min="2" max="2"/>
@@ -2851,7 +2864,7 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" style="7" min="1" max="1"/>
     <col width="9" customWidth="1" style="7" min="2" max="2"/>
@@ -3550,7 +3563,7 @@
       <selection activeCell="G20" sqref="G20:G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="8.891666666666669" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
@@ -4114,7 +4127,7 @@
       <selection activeCell="F37" sqref="F36:F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" min="1" max="1"/>
     <col width="9" customWidth="1" min="2" max="2"/>
@@ -4513,7 +4526,7 @@
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
     <col width="9.55833333333333" customWidth="1" min="1" max="1"/>
     <col width="16.4416666666667" customWidth="1" min="2" max="2"/>
@@ -4560,7 +4573,7 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25" outlineLevelCol="0"/>
   <cols>
     <col width="22.6666666666667" customWidth="1" min="3" max="3"/>
     <col width="23.5583333333333" customWidth="1" min="5" max="5"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -1331,7 +1331,11 @@
           <t>{"code": 204}</t>
         </is>
       </c>
-      <c r="J6" s="23" t="inlineStr"/>
+      <c r="J6" s="24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
@@ -1479,11 +1483,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J10" s="24" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J10" s="23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -1331,11 +1331,7 @@
           <t>{"code": 204}</t>
         </is>
       </c>
-      <c r="J6" s="24" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="J6" s="23" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="10" t="n">
@@ -1483,7 +1479,11 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="J10" s="23" t="inlineStr"/>
+      <c r="J10" s="24" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15480" tabRatio="936" activeTab="1"/>
+    <workbookView windowWidth="31080" windowHeight="15480" tabRatio="936" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="233">
   <si>
     <t>case_id</t>
   </si>
@@ -86,6 +86,9 @@
     <t>{"code":200,"field_1":"sessionId","field_2":"sessionExpiry"}</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>成功获取sessionId，参数不含propertyCode</t>
   </si>
   <si>
@@ -110,6 +113,9 @@
     <t>{"Host":"#Host#"}</t>
   </si>
   <si>
+    <t>Skip</t>
+  </si>
+  <si>
     <t>deleteSession</t>
   </si>
   <si>
@@ -125,9 +131,6 @@
     <t>{"code":204}</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>缺少sessionId</t>
   </si>
   <si>
@@ -173,7 +176,7 @@
     <t>Members</t>
   </si>
   <si>
-    <t>正常获取会员信息</t>
+    <t>通过会员卡号查询</t>
   </si>
   <si>
     <t>get</t>
@@ -188,7 +191,10 @@
     <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#membershipCardNumber#"}</t>
   </si>
   <si>
-    <t>{"code": 200,"number": "#number#","firstName": "#firstName#","lastName":"#lastName#"}</t>
+    <t>{"code": 200,"matchCount":1,"id": "#id#","firstName": "#firstName#","lastName":"#lastName#"}</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>错误的companyName</t>
@@ -197,9 +203,6 @@
     <t>vNext2/api/#version#/#errorCompanyName#/Members/lookup/</t>
   </si>
   <si>
-    <t>{"code": 200,"matchCount":0,"members": []}</t>
-  </si>
-  <si>
     <t>缺少companyName</t>
   </si>
   <si>
@@ -224,31 +227,49 @@
     <t>{"Host":"#Host#","Session":"#sessionId#"}</t>
   </si>
   <si>
-    <t>通过会员卡号查询</t>
-  </si>
-  <si>
     <t>通过邮箱地址查询</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","emailAddress":"#emailAddress#"}</t>
+  </si>
+  <si>
     <t>通过会员名查询</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberFirstName":"#firstName#"}</t>
+  </si>
+  <si>
+    <t>{"code": 200,"id": "#id#","firstName": "#firstName#","lastName":"#lastName#"}</t>
+  </si>
+  <si>
     <t>通过会员姓查询</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberLastName":"#lastName#"}</t>
+  </si>
+  <si>
     <t>通过会员手机号查询</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","mobileNumber":"#mobileNumber#"}</t>
+  </si>
+  <si>
     <t>查询不存在的会员卡号</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#errorMembershipCardNumber#"}</t>
+  </si>
+  <si>
+    <t>{"code": 200,"matchCount": 0,"members": []}</t>
+  </si>
+  <si>
     <t>通过会员卡号查询过期的会员</t>
   </si>
   <si>
     <t>查询错误的邮箱地址</t>
   </si>
   <si>
-    <t>查询不存在的邮箱地址</t>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","emailAddress":"#errorEmailAddress#"}</t>
   </si>
   <si>
     <t>通过邮箱地址查询过期的会员</t>
@@ -257,25 +278,49 @@
     <t>查询不存在的会员名</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberFirstName":"#errorFirstName#"}</t>
+  </si>
+  <si>
     <t>通过会员名查询过期的会员</t>
   </si>
   <si>
     <t>查询不存在的会员姓</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberLastName":"#errorLastName#"}</t>
+  </si>
+  <si>
     <t>通过会员姓查询过期的会员</t>
   </si>
   <si>
     <t>通过相关联的会员姓和名组合查询</t>
   </si>
   <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberFirstName":"#firstName#","memberLastName":"#lastName#"}</t>
+  </si>
+  <si>
     <t>通过不相关的会员姓和名组合查询</t>
   </si>
   <si>
-    <t>查询不存在的手机号</t>
-  </si>
-  <si>
-    <t>查询错误的手机号</t>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberFirstName":"#firstName#","memberLastName":"Last"}</t>
+  </si>
+  <si>
+    <t>查询不存在的手机号,11位数</t>
+  </si>
+  <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","mobileNumber":"#errorMobileNumber#"}</t>
+  </si>
+  <si>
+    <t>查询错误的手机号,超过11位数</t>
+  </si>
+  <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","mobileNumber":"139123441231"}</t>
+  </si>
+  <si>
+    <t>查询错误的手机号,小于11位数</t>
+  </si>
+  <si>
+    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","mobileNumber":"1391234412"}</t>
   </si>
   <si>
     <t>通过手机号查询过期的会员</t>
@@ -683,9 +728,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -740,13 +785,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006400"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -754,7 +792,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,31 +837,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +860,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -821,21 +898,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
@@ -843,11 +905,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -858,40 +935,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -903,6 +948,60 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -918,43 +1017,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,31 +1053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,7 +1071,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,73 +1131,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1110,6 +1155,39 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1143,55 +1221,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,151 +1244,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,12 +1428,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1396,6 +1438,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1405,13 +1448,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1824,7 +1867,9 @@
       <c r="J2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" ht="28.5" customHeight="1" spans="1:11">
       <c r="A3" s="10">
@@ -1837,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>16</v>
@@ -1852,7 +1897,9 @@
       <c r="J3" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="23"/>
+      <c r="K3" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="1:11">
       <c r="A4" s="10">
@@ -1862,10 +1909,10 @@
         <v>13</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>16</v>
@@ -1874,13 +1921,15 @@
         <v>17</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="14"/>
       <c r="J4" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K4" s="23"/>
+        <v>26</v>
+      </c>
+      <c r="K4" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="10">
@@ -1890,10 +1939,10 @@
         <v>13</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
@@ -1902,42 +1951,44 @@
         <v>17</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="14"/>
       <c r="J5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="14"/>
       <c r="J6" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1945,16 +1996,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
@@ -1964,10 +2015,10 @@
       </c>
       <c r="H7" s="14"/>
       <c r="J7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -1975,29 +2026,29 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G8" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H8" s="14"/>
       <c r="J8" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -2005,29 +2056,29 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H9" s="14"/>
       <c r="J9" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -2035,29 +2086,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="14" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>28</v>
       </c>
       <c r="H10" s="14"/>
       <c r="J10" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K10" s="14" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2072,7 +2123,7 @@
   <sheetPr/>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
@@ -2135,31 +2186,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>40</v>
+      <c r="D2" s="22" t="s">
+        <v>41</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="13" t="s">
-        <v>41</v>
+      <c r="F2" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G2" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="K2" s="22" t="s">
-        <v>34</v>
+      <c r="J2" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" ht="28.5" customHeight="1" spans="1:11">
@@ -2167,29 +2218,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>44</v>
+        <v>23</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>41</v>
+      <c r="F3" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="J3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="22" t="s">
-        <v>34</v>
+      <c r="J3" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="28.5" customHeight="1" spans="1:11">
@@ -2197,31 +2248,31 @@
         <v>3</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>46</v>
+      <c r="D4" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="E4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="13" t="s">
-        <v>41</v>
+      <c r="F4" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G4" s="14" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="22" t="s">
-        <v>34</v>
+        <v>48</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:11">
@@ -2229,28 +2280,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>48</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>49</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="13" t="s">
-        <v>41</v>
+      <c r="F5" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="22" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -2258,45 +2309,45 @@
         <v>5</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>28</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>41</v>
+      <c r="F6" s="22" t="s">
+        <v>42</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K6" s="22" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="11:11">
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="11:11">
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="6:11">
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="K9" s="22" t="s">
-        <v>34</v>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="K9" s="23" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2363,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
@@ -2325,8 +2376,8 @@
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="8.33333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="54.375" customWidth="1"/>
-    <col min="7" max="7" width="44.25" style="11" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="11" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="11" customWidth="1"/>
     <col min="8" max="8" width="41" style="11" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
@@ -2349,7 +2400,7 @@
       <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -2379,32 +2430,32 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1" spans="1:11">
@@ -2412,125 +2463,131 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" s="18"/>
+      <c r="K3" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="4" ht="42.75" customHeight="1" spans="1:11">
       <c r="A4" s="10">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" s="18" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:11">
       <c r="A5" s="10">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" ht="42.75" customHeight="1" spans="1:11">
       <c r="A6" s="10">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" ht="42.75" customHeight="1" spans="1:11">
@@ -2538,32 +2595,32 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17" t="s">
-        <v>45</v>
+        <v>55</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1" spans="1:11">
@@ -2571,29 +2628,32 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="K8" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="42.75" customHeight="1" spans="1:11">
@@ -2601,165 +2661,197 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I9" s="16"/>
+        <v>55</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16" t="s">
+        <v>46</v>
+      </c>
       <c r="K9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" ht="28.5" customHeight="1" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="42.75" customHeight="1" spans="1:11">
       <c r="A10" s="10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="K10" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" s="7" customFormat="1" ht="42.75" customHeight="1" spans="1:11">
       <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="K11" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" s="7" customFormat="1" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" ht="42.75" customHeight="1" spans="1:11">
       <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16"/>
-      <c r="K12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" ht="42.75" customHeight="1" spans="1:11">
       <c r="A13" s="10">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="16"/>
-      <c r="K13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13" s="17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" ht="42.75" customHeight="1" spans="1:11">
       <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="K14" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" ht="28.5" customHeight="1" spans="1:11">
@@ -2767,52 +2859,58 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="I15" s="16"/>
-      <c r="K15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H15" s="14"/>
+      <c r="K15" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="42.75" customHeight="1" spans="1:11">
       <c r="A16" s="10">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" ht="28.5" customHeight="1" spans="1:11">
@@ -2820,51 +2918,57 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="K17" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="42.75" customHeight="1" spans="1:11">
       <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="28.5" customHeight="1" spans="1:11">
@@ -2872,51 +2976,58 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H19" s="14"/>
+      <c r="K19" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" ht="42.75" customHeight="1" spans="1:11">
       <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" ht="28.5" customHeight="1" spans="1:11">
@@ -2924,129 +3035,154 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" ht="28.5" customHeight="1" spans="1:11">
+        <v>54</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="K21" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" ht="57" customHeight="1" spans="1:11">
       <c r="A22" s="10">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>72</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" ht="28.5" customHeight="1" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" ht="42.75" customHeight="1" spans="1:11">
       <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" ht="28.5" customHeight="1" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" ht="42.75" customHeight="1" spans="1:11">
       <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="25" ht="28.5" customHeight="1" spans="1:11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" ht="42.75" customHeight="1" spans="1:11">
       <c r="A25" s="10">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F25" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" ht="28.5" customHeight="1" spans="1:11">
@@ -3054,25 +3190,31 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="11" t="s">
+        <v>79</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" ht="28.5" customHeight="1" spans="1:11">
@@ -3080,51 +3222,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A28" s="10">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D28" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>34</v>
+        <v>54</v>
+      </c>
+      <c r="K27" s="18" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3191,25 +3307,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="14.4" customHeight="1" spans="1:9">
@@ -3217,28 +3333,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" ht="14.4" customHeight="1" spans="1:9">
@@ -3246,28 +3362,28 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="14.4" customHeight="1" spans="1:9">
@@ -3275,28 +3391,28 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="14.4" customHeight="1" spans="1:9">
@@ -3304,28 +3420,28 @@
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E6" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="14.4" customHeight="1" spans="1:8">
@@ -3333,25 +3449,25 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" ht="14.4" customHeight="1" spans="1:8">
@@ -3359,25 +3475,25 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="14.4" customHeight="1" spans="1:8">
@@ -3385,25 +3501,25 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" ht="14.4" customHeight="1" spans="1:8">
@@ -3411,25 +3527,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="14.4" customHeight="1" spans="1:8">
@@ -3437,25 +3553,25 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="12" ht="14.4" customHeight="1" spans="1:8">
@@ -3463,25 +3579,25 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" ht="14.4" customHeight="1" spans="1:8">
@@ -3489,25 +3605,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" ht="14.4" customHeight="1" spans="1:8">
@@ -3515,25 +3631,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" ht="14.4" customHeight="1" spans="1:8">
@@ -3541,25 +3657,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" ht="14.4" customHeight="1" spans="1:8">
@@ -3567,25 +3683,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="H16" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3652,25 +3768,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:9">
@@ -3678,28 +3794,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
@@ -3707,25 +3823,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
@@ -3733,25 +3849,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:8">
@@ -3759,25 +3875,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
@@ -3785,25 +3901,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
@@ -3811,25 +3927,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>138</v>
-      </c>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
@@ -3837,25 +3953,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="G9" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:8">
@@ -3863,25 +3979,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G10" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:8">
@@ -3889,25 +4005,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:8">
@@ -3915,25 +4031,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>165</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:8">
@@ -3941,25 +4057,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G13" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4026,25 +4142,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:8">
@@ -4052,25 +4168,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
@@ -4078,25 +4194,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
@@ -4104,25 +4220,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:8">
@@ -4130,25 +4246,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G6" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
@@ -4156,25 +4272,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>183</v>
+        <v>198</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>184</v>
+        <v>199</v>
       </c>
       <c r="G7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
@@ -4182,25 +4298,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>186</v>
+        <v>201</v>
       </c>
       <c r="G8" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
@@ -4208,25 +4324,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -4327,25 +4443,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E2" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H2" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:9">
@@ -4353,25 +4469,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="G3" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H3" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -4380,25 +4496,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4407,25 +4523,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H5" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -4434,25 +4550,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C6" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="D6" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E6" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F6" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="H6" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -4461,25 +4577,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="F7" t="s">
-        <v>201</v>
+        <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -4488,25 +4604,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C8" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="G8" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4515,25 +4631,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="C9" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="F9" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G9" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4542,25 +4658,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="C10" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="D10" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H10" t="s">
         <v>211</v>
-      </c>
-      <c r="F10" t="s">
-        <v>212</v>
-      </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>196</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -4569,25 +4685,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C11" t="s">
-        <v>180</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>196</v>
       </c>
       <c r="F11" t="s">
-        <v>182</v>
+        <v>197</v>
       </c>
       <c r="G11" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4596,25 +4712,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C12" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H12" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -4623,25 +4739,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="F13" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="G13" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31080" windowHeight="15480" tabRatio="936" activeTab="2"/>
+    <workbookView windowWidth="26700" windowHeight="15480" tabRatio="936" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="245">
   <si>
     <t>case_id</t>
   </si>
@@ -77,13 +77,16 @@
     <t>vNext2/api/#version#/session/</t>
   </si>
   <si>
-    <t>{"AKey":"#AKey#","Host":"#Host#"}</t>
+    <t>{"AKey":"#AKey#",
+"Host":"#Host#"}</t>
   </si>
   <si>
     <t>{"propertyCode":"#propertyCode#"}</t>
   </si>
   <si>
-    <t>{"code":200,"field_1":"sessionId","field_2":"sessionExpiry"}</t>
+    <t>{"code":200,
+"field_1":"sessionId",
+"field_2":"sessionExpiry"}</t>
   </si>
   <si>
     <t/>
@@ -98,7 +101,8 @@
     <t>错误的AKey</t>
   </si>
   <si>
-    <t>{"AKey":"#errorAKey#","Host":"#Host#"}</t>
+    <t>{"AKey":"#errorAKey#",
+"Host":"#Host#"}</t>
   </si>
   <si>
     <t>{"code":401}</t>
@@ -155,7 +159,9 @@
     <t>{"id":"#membershipCardNumber#"}</t>
   </si>
   <si>
-    <t>{"code": 200,"field_1": "accessToken","field_2": "accessTokenExpiry"}</t>
+    <t>{"code": 200,
+"field_1": "accessToken",
+"field_2": "accessTokenExpiry"}</t>
   </si>
   <si>
     <t>不传User id</t>
@@ -185,57 +191,80 @@
     <t>vNext2/api/#version#/#companyName#/Members/lookup/</t>
   </si>
   <si>
+    <t>{"AKey":"#AKey#",
+"Host":"#Host#",
+"Session":"#sessionId#"}</t>
+  </si>
+  <si>
+    <t>{"propertyCode":"#propertyCode#",
+"facilityCode":"#facilityCode#",
+"membershipCardNumber":"#membershipCardNumber#"}</t>
+  </si>
+  <si>
+    <t>{"code": 200,
+"matchCount":1,
+"id": "#id#",
+"firstName": "#firstName#",
+"lastName":"#lastName#"}</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>错误的companyName</t>
+  </si>
+  <si>
+    <t>vNext2/api/#version#/#errorCompanyName#/Members/lookup/</t>
+  </si>
+  <si>
+    <t>缺少companyName</t>
+  </si>
+  <si>
+    <t>vNext2/api/#version#/Members/lookup/</t>
+  </si>
+  <si>
+    <t>{"code": 404}</t>
+  </si>
+  <si>
+    <t>{"AKey":"#errorAKey#",
+"Host":"#Host#",
+"Session":"#sessionId#"}</t>
+  </si>
+  <si>
+    <t>{"AKey":"#errorAKey#",
+"Host":"#Host#",
+"Session":"#errorSessionId#"}</t>
+  </si>
+  <si>
+    <t>过期的sessionId</t>
+  </si>
+  <si>
+    <t>{"AKey":"#errorAKey#",
+"Host":"#Host#",
+"Session":"#expiredSessionId#"}</t>
+  </si>
+  <si>
+    <t>{"Host":"#Host#",
+"Session":"#sessionId#"}</t>
+  </si>
+  <si>
+    <t>通过邮箱地址查询</t>
+  </si>
+  <si>
+    <t>{"propertyCode":"#propertyCode#",
+"facilityCode":"#facilityCode#",
+"emailAddress":"#emailAddress#"}</t>
+  </si>
+  <si>
+    <t>{"code": 200,"matchCount":1,"id": "#id#","firstName": "#firstName#","lastName":"#lastName#"}</t>
+  </si>
+  <si>
+    <t>通过会员名查询</t>
+  </si>
+  <si>
     <t>{"AKey":"#AKey#","Host":"#Host#","Session":"#sessionId#"}</t>
   </si>
   <si>
-    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","membershipCardNumber":"#membershipCardNumber#"}</t>
-  </si>
-  <si>
-    <t>{"code": 200,"matchCount":1,"id": "#id#","firstName": "#firstName#","lastName":"#lastName#"}</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>错误的companyName</t>
-  </si>
-  <si>
-    <t>vNext2/api/#version#/#errorCompanyName#/Members/lookup/</t>
-  </si>
-  <si>
-    <t>缺少companyName</t>
-  </si>
-  <si>
-    <t>vNext2/api/#version#/Members/lookup/</t>
-  </si>
-  <si>
-    <t>{"code": 404}</t>
-  </si>
-  <si>
-    <t>{"AKey":"#errorAKey#","Host":"#Host#","Session":"#sessionId#"}</t>
-  </si>
-  <si>
-    <t>{"AKey":"#errorAKey#","Host":"#Host#","Session":"#errorSessionId#"}</t>
-  </si>
-  <si>
-    <t>过期的sessionId</t>
-  </si>
-  <si>
-    <t>{"AKey":"#errorAKey#","Host":"#Host#","Session":"#expiredSessionId#"}</t>
-  </si>
-  <si>
-    <t>{"Host":"#Host#","Session":"#sessionId#"}</t>
-  </si>
-  <si>
-    <t>通过邮箱地址查询</t>
-  </si>
-  <si>
-    <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","emailAddress":"#emailAddress#"}</t>
-  </si>
-  <si>
-    <t>通过会员名查询</t>
-  </si>
-  <si>
     <t>{"propertyCode":"#propertyCode#","facilityCode":"#facilityCode#","memberFirstName":"#firstName#"}</t>
   </si>
   <si>
@@ -326,388 +355,492 @@
     <t>通过手机号查询过期的会员</t>
   </si>
   <si>
+    <t>prepareCoupons</t>
+  </si>
+  <si>
+    <t>正常查询项目coupon</t>
+  </si>
+  <si>
+    <t>vNext2/api/#version#/#companyName#/Coupons/prepare</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#sessionId#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>正常查询折扣券</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#discountCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>正常查询代金券</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#cashCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>vNext2/api/#version#/#errorCompanyName#/Coupons/prepare</t>
+  </si>
+  <si>
+    <t>vNext2/api/#version#/Coupons/prepare</t>
+  </si>
+  <si>
+    <t>{"AKey":"#errorAKey#",
+"Session":"#sessionId#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#errorSessionId#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#expiredSessionId#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>{"Session":"#sessionId#",
+"Authorization":"#accessToken#"}</t>
+  </si>
+  <si>
+    <t>不传Authorization</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#sessionId#"}</t>
+  </si>
+  <si>
+    <t>过期的Authorization</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#sessionId#",
+"Authorization":"#expiredAccessToken#"}</t>
+  </si>
+  <si>
+    <t>错误的Authorization</t>
+  </si>
+  <si>
+    <t>{"AKey":"#AKey#",
+"Session":"#sessionId#",
+"Authorization":"#errorAccessToken#"}</t>
+  </si>
+  <si>
+    <t>错误的coupon</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#errorItemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>{"code": 400,
+"succes":"fales",
+"errorCode": "2001",
+"description":"The provided Membership Card number was not found in the system. Please check the Membership Card number and try your request again."}</t>
+  </si>
+  <si>
+    <t>过期的coupon</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#expiredCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>{"code": 400,
+"succes":"fales",
+"errorCode": "2023",
+"description":"Coupon has already expired."}</t>
+  </si>
+  <si>
+    <t>使用过的coupon</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#usedItemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>{"code": 400,
+"succes":"fales",
+"errorCode": "2022",
+"description":"Coupon is already used."}</t>
+  </si>
+  <si>
+    <t>不传coupon</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>{"code": 400,
+"succes":"fales",
+"errorCode": "1001",
+"description":"Coupon Serial Number Can't Empty!"}</t>
+  </si>
+  <si>
+    <t>不传propertyCode</t>
+  </si>
+  <si>
+    <t>{"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>错误的propertyCode</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#errorPropertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>不传facilityCode</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>错误的facilityCode</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#errorFacilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>不传checkNumber</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"employeeID": "1"}</t>
+  </si>
+  <si>
+    <t>不传employeeID</t>
+  </si>
+  <si>
+    <t>{"propertyCode": "#propertyCode#",
+"facilityCode": "#facilityCode#",
+"couponSerialNumber": "#itemCouponNumber#",
+"checkNumber": "test#checkNumber#"}</t>
+  </si>
+  <si>
+    <t>redeemCoupons</t>
+  </si>
+  <si>
     <t>login</t>
   </si>
   <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>post</t>
+    <t>借款人正常登录</t>
   </si>
   <si>
     <t>/member/login</t>
   </si>
   <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
+  </si>
+  <si>
+    <t>{"code":0,"msg":"OK"}</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>加标成功</t>
+  </si>
+  <si>
+    <t>/loan/add</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>SELECT * FROM  futureloan.loan WHERE member_id=#admin_member_id#</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id为空</t>
+  </si>
+  <si>
+    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"用户id为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—标题为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"标题为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款金额为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—年利率为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"利率为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款期限类型为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"借款日期类型为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—竞标天数为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"竞标期限为空"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款人id不是当前登录用户</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为负数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>{"code":2,"msg":"借款金额范围错误"}</t>
+  </si>
+  <si>
+    <t>加标失败—借款金额为小数</t>
+  </si>
+  <si>
+    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>管理员正常登录</t>
+  </si>
+  <si>
+    <t>管理员加标</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>audit</t>
+  </si>
+  <si>
+    <t>管理员审核</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>/loan/audit</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
+  </si>
+  <si>
+    <t>投资人正常登录</t>
+  </si>
+  <si>
     <t>{"mobile_phone":"#mobile_phone#","pwd":"#pwd#"}</t>
   </si>
   <si>
-    <t>{'code': 0, 'msg': 'OK'}</t>
-  </si>
-  <si>
-    <t>pass</t>
+    <t>invest</t>
+  </si>
+  <si>
+    <t>投资人正常投资</t>
+  </si>
+  <si>
+    <t>/member/invest</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>投资人id为空</t>
+  </si>
+  <si>
+    <t>{"loan_id":#loan_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"会员id为空"}</t>
+  </si>
+  <si>
+    <t>标id为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"amount":300}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"项目id为空"}</t>
+  </si>
+  <si>
+    <t>投资金额为空</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
+  </si>
+  <si>
+    <t>{"code":1,"msg":"余额为空"}</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>管理员注册</t>
+  </si>
+  <si>
+    <t>/member/register</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
+  </si>
+  <si>
+    <t>用户注册</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
+  </si>
+  <si>
+    <t>{"code": 0, "msg": "OK"}</t>
+  </si>
+  <si>
+    <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>获取用户信息</t>
+  </si>
+  <si>
+    <t>/member/#member_id#/info</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>更改昵称</t>
+  </si>
+  <si>
+    <t>/member/update</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
+  </si>
+  <si>
+    <t>recharge</t>
+  </si>
+  <si>
+    <t>充值</t>
+  </si>
+  <si>
+    <t>/member/recharge</t>
+  </si>
+  <si>
+    <t>{"member_id": #member_id#,"amount":20000}</t>
   </si>
   <si>
     <t>withdraw</t>
   </si>
   <si>
-    <t>提现成功-整数</t>
+    <t>取现</t>
   </si>
   <si>
     <t>/member/withdraw</t>
   </si>
   <si>
     <t>{"member_id": #member_id#,"amount":600}</t>
-  </si>
-  <si>
-    <t>{"code":0,"msg":"OK"}</t>
-  </si>
-  <si>
-    <t>SELECT leave_amount FROM futureloan.member WHERE mobile_phone=#mobile_phone#</t>
-  </si>
-  <si>
-    <t>提现成功-1位小数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":600.1}</t>
-  </si>
-  <si>
-    <t>提现成功-2位小数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":600.22}</t>
-  </si>
-  <si>
-    <t>提现成功-50万</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":500000}</t>
-  </si>
-  <si>
-    <t>会员id为空</t>
-  </si>
-  <si>
-    <t>{"amount":600}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"会员id为空"}</t>
-  </si>
-  <si>
-    <t>会员id不存在</t>
-  </si>
-  <si>
-    <t>{"member_id": "98989898","amount":600}</t>
-  </si>
-  <si>
-    <t>{"code": 2, "msg": "会员不存在"}</t>
-  </si>
-  <si>
-    <t>会员id为字符串</t>
-  </si>
-  <si>
-    <t>{"member_id": "#member_id#","amount":600}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"数字格式化异常"}</t>
-  </si>
-  <si>
-    <t>fail</t>
-  </si>
-  <si>
-    <t>会员id为小数</t>
-  </si>
-  <si>
-    <t>{"member_id": 1.0, "amount":600}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"数值参数格式不正确"}</t>
-  </si>
-  <si>
-    <t>提现金额为0</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 0}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"余额必须大于0并且小于或者等于500000"}</t>
-  </si>
-  <si>
-    <t>提现金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": -600}</t>
-  </si>
-  <si>
-    <t>{'code': 2, 'msg': '余额必须大于0并且小于或者等于500000'}</t>
-  </si>
-  <si>
-    <t>提现金额为空</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"余额为空"}</t>
-  </si>
-  <si>
-    <t>提现金额-3位小数</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 600.222}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"余额小数超过两位"}</t>
-  </si>
-  <si>
-    <t>提现金额-大于50万</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": 500001}</t>
-  </si>
-  <si>
-    <t>提现金额-非数字</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount": "5万"}</t>
-  </si>
-  <si>
-    <t>借款人正常登录</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#admin_phone#","pwd":"#admin_pwd#"}</t>
-  </si>
-  <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>加标成功</t>
-  </si>
-  <si>
-    <t>/loan/add</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>SELECT * FROM  futureloan.loan WHERE member_id=#admin_member_id#</t>
-  </si>
-  <si>
-    <t>加标失败—借款人id为空</t>
-  </si>
-  <si>
-    <t>{"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"用户id为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—标题为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"标题为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款金额为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"借款金额为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—年利率为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"利率为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款期限为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"借款期限为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款期限类型为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"借款日期类型为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—竞标天数为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"竞标期限为空"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款人id不是当前登录用户</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#+1,"title":"借钱实现财富自由","amount":2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":1007,"msg":"无权限访问，请检查参数"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款金额为负数</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":-2000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>{"code":2,"msg":"借款金额范围错误"}</t>
-  </si>
-  <si>
-    <t>加标失败—借款金额为小数</t>
-  </si>
-  <si>
-    <t>{"member_id":#admin_member_id#,"title":"借钱实现财富自由","amount":2000.1,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>管理员正常登录</t>
-  </si>
-  <si>
-    <t>管理员加标</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":400,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>audit</t>
-  </si>
-  <si>
-    <t>管理员审核</t>
-  </si>
-  <si>
-    <t>patch</t>
-  </si>
-  <si>
-    <t>/loan/audit</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#,"approved_or_not": True}</t>
-  </si>
-  <si>
-    <t>投资人正常登录</t>
-  </si>
-  <si>
-    <t>invest</t>
-  </si>
-  <si>
-    <t>投资人正常投资</t>
-  </si>
-  <si>
-    <t>/member/invest</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#, "loan_id":#loan_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>投资人id为空</t>
-  </si>
-  <si>
-    <t>{"loan_id":#loan_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>标id为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"amount":300}</t>
-  </si>
-  <si>
-    <t>{"code":1,"msg":"项目id为空"}</t>
-  </si>
-  <si>
-    <t>投资金额为空</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#, "loan_id":#loan_id#}</t>
-  </si>
-  <si>
-    <t>register</t>
-  </si>
-  <si>
-    <t>管理员注册</t>
-  </si>
-  <si>
-    <t>/member/register</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678","type":0,"reg_name":"34254sdfs"}</t>
-  </si>
-  <si>
-    <t>未通过</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#admin_phone#","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>{"member_id":#member_id#,"title":"借钱实现财富自由","amount":40000,"loan_rate":12.0,"loan_term":3,"loan_date_type":1,"bidding_days":5}</t>
-  </si>
-  <si>
-    <t>用户注册</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#phone#","pwd":"12345678","type":1,"reg_name":"34254sdfs"}</t>
-  </si>
-  <si>
-    <t>{"code": 0, "msg": "OK"}</t>
-  </si>
-  <si>
-    <t>{"mobile_phone":"#phone#","pwd":"12345678"}</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>获取用户信息</t>
-  </si>
-  <si>
-    <t>/member/#member_id#/info</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>更改昵称</t>
-  </si>
-  <si>
-    <t>/member/update</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#, "reg_name": "小柠檬666"}</t>
-  </si>
-  <si>
-    <t>recharge</t>
-  </si>
-  <si>
-    <t>充值</t>
-  </si>
-  <si>
-    <t>/member/recharge</t>
-  </si>
-  <si>
-    <t>{"member_id": #member_id#,"amount":20000}</t>
-  </si>
-  <si>
-    <t>取现</t>
   </si>
   <si>
     <t>loans</t>
@@ -727,12 +860,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -767,12 +900,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0022"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0022"/>
+      <color rgb="FF006400"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -785,22 +920,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006400"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,6 +939,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,24 +972,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -854,6 +982,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -873,19 +1008,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -898,7 +1033,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -906,7 +1041,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -929,13 +1064,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -951,19 +1079,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -975,25 +1127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,13 +1157,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,13 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1047,7 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1059,13 +1217,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,7 +1235,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1095,37 +1253,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,6 +1283,21 @@
         <color auto="1"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1206,21 +1349,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1261,10 +1389,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -1273,137 +1401,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1415,30 +1543,52 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1454,7 +1604,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1779,42 +1929,42 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="10" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="21" customWidth="1"/>
+    <col min="1" max="1" width="7.66666666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="20" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="27" customWidth="1"/>
     <col min="4" max="4" width="39.125" customWidth="1"/>
     <col min="5" max="5" width="8.33333333333333" customWidth="1"/>
     <col min="6" max="6" width="45" customWidth="1"/>
-    <col min="7" max="7" width="32" style="11" customWidth="1"/>
-    <col min="8" max="8" width="16.875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="4.375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="32" style="21" customWidth="1"/>
+    <col min="8" max="8" width="16.875" style="21" customWidth="1"/>
+    <col min="9" max="9" width="4.375" style="21" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="21" customWidth="1"/>
     <col min="11" max="11" width="5.75" customWidth="1"/>
     <col min="12" max="16383" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="20" customFormat="1" spans="1:13">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
@@ -1829,285 +1979,285 @@
       <c r="J1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A2" s="10">
+    <row r="2" ht="42.75" spans="1:11">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="K2" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A3" s="10">
+    <row r="3" ht="42.75" spans="1:11">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="14"/>
-      <c r="J3" s="14" t="s">
+      <c r="H3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A4" s="10">
+    <row r="4" ht="28.5" spans="1:11">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="J4" s="14" t="s">
+      <c r="H4" s="15"/>
+      <c r="J4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="10">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="J5" s="14" t="s">
+      <c r="H5" s="15"/>
+      <c r="J5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="24" t="s">
+      <c r="K5" s="30" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="10">
+    <row r="6" ht="28.5" spans="1:11">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="J6" s="14" t="s">
+      <c r="H6" s="15"/>
+      <c r="J6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="10">
+    <row r="7" ht="28.5" spans="1:11">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="J7" s="14" t="s">
+      <c r="H7" s="15"/>
+      <c r="J7" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="10">
+    <row r="8" ht="28.5" spans="1:11">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="J8" s="14" t="s">
+      <c r="H8" s="15"/>
+      <c r="J8" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="10">
+    <row r="9" ht="28.5" spans="1:11">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="J9" s="14" t="s">
+      <c r="H9" s="15"/>
+      <c r="J9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="10">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="10" t="s">
         <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="14"/>
-      <c r="J10" s="14" t="s">
+      <c r="H10" s="15"/>
+      <c r="J10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2124,212 +2274,212 @@
   <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88333333333333" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="8.88333333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="16.8833333333333" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="20" customWidth="1"/>
-    <col min="6" max="7" width="25.375" style="20" customWidth="1"/>
-    <col min="8" max="8" width="32.75" style="20" customWidth="1"/>
-    <col min="9" max="9" width="5.125" style="20" customWidth="1"/>
-    <col min="10" max="10" width="54" style="20" customWidth="1"/>
-    <col min="11" max="12" width="8.88333333333333" style="20" customWidth="1"/>
-    <col min="13" max="16384" width="8.88333333333333" style="7" customWidth="1"/>
+    <col min="1" max="3" width="8.88333333333333" style="26" customWidth="1"/>
+    <col min="4" max="4" width="16.8833333333333" style="26" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="26" customWidth="1"/>
+    <col min="6" max="7" width="25.375" style="26" customWidth="1"/>
+    <col min="8" max="8" width="32.75" style="26" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="26" customWidth="1"/>
+    <col min="10" max="10" width="54" style="26" customWidth="1"/>
+    <col min="11" max="12" width="8.88333333333333" style="26" customWidth="1"/>
+    <col min="13" max="16384" width="8.88333333333333" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="19" customFormat="1" spans="1:13">
-      <c r="A1" s="19" t="s">
+    <row r="1" s="25" customFormat="1" spans="1:13">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="19" t="s">
+      <c r="K1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A2" s="20">
+    <row r="2" ht="42.75" spans="1:11">
+      <c r="A2" s="26">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="J2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K2" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A3" s="20">
+      <c r="A3" s="26">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="J3" s="16" t="s">
+      <c r="J3" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="K3" s="29" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="4" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A4" s="20">
+    <row r="4" ht="42.75" spans="1:11">
+      <c r="A4" s="26">
         <v>3</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="J4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="23" t="s">
+      <c r="K4" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A5" s="20">
+      <c r="A5" s="26">
         <v>4</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="J5" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K5" s="23" t="s">
+      <c r="K5" s="29" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="20">
+      <c r="A6" s="26">
         <v>5</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2344,9 +2494,9 @@
       </c>
     </row>
     <row r="9" spans="6:11">
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="K9" s="23" t="s">
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="K9" s="29" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2365,39 +2515,39 @@
   <sheetPr/>
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" style="10" customWidth="1"/>
+    <col min="1" max="1" width="7.25" style="20" customWidth="1"/>
     <col min="2" max="2" width="9.125" customWidth="1"/>
     <col min="3" max="3" width="9.25" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="8.33333333333333" style="10" customWidth="1"/>
-    <col min="6" max="6" width="30.75" style="11" customWidth="1"/>
-    <col min="7" max="7" width="27.375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="41" style="11" customWidth="1"/>
+    <col min="5" max="5" width="8.33333333333333" style="20" customWidth="1"/>
+    <col min="6" max="6" width="30.75" style="21" customWidth="1"/>
+    <col min="7" max="7" width="27.375" style="21" customWidth="1"/>
+    <col min="8" max="8" width="48" style="21" customWidth="1"/>
     <col min="9" max="9" width="5.125" customWidth="1"/>
     <col min="10" max="10" width="39" customWidth="1"/>
     <col min="11" max="11" width="6.33333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" spans="1:13">
-      <c r="A1" s="10" t="s">
+    <row r="1" s="20" customFormat="1" spans="1:13">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
@@ -2409,24 +2559,24 @@
       <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A2" s="10">
+    <row r="2" ht="71.25" spans="1:11">
+      <c r="A2" s="20">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -2438,28 +2588,28 @@
       <c r="D2" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="22"/>
+      <c r="J2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A3" s="10">
+      <c r="A3" s="20">
         <v>2</v>
       </c>
       <c r="B3" t="s">
@@ -2471,20 +2621,20 @@
       <c r="D3" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="15"/>
-      <c r="J3" s="16" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="18" t="s">
         <v>56</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -2492,7 +2642,7 @@
       </c>
     </row>
     <row r="4" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A4" s="10">
+      <c r="A4" s="20">
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -2504,28 +2654,28 @@
       <c r="D4" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="22"/>
+      <c r="J4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="K4" s="18" t="s">
+      <c r="K4" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A5" s="10">
+      <c r="A5" s="20">
         <v>4</v>
       </c>
       <c r="B5" t="s">
@@ -2537,20 +2687,20 @@
       <c r="D5" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="15"/>
-      <c r="J5" s="16" t="s">
+      <c r="I5" s="22"/>
+      <c r="J5" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K5" s="5" t="s">
@@ -2558,7 +2708,7 @@
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A6" s="10">
+      <c r="A6" s="20">
         <v>5</v>
       </c>
       <c r="B6" t="s">
@@ -2570,20 +2720,20 @@
       <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="22"/>
+      <c r="J6" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -2591,7 +2741,7 @@
       </c>
     </row>
     <row r="7" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A7" s="10">
+      <c r="A7" s="20">
         <v>6</v>
       </c>
       <c r="B7" t="s">
@@ -2603,20 +2753,20 @@
       <c r="D7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="16" t="s">
+      <c r="I7" s="22"/>
+      <c r="J7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K7" s="5" t="s">
@@ -2624,7 +2774,7 @@
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A8" s="10">
+      <c r="A8" s="20">
         <v>7</v>
       </c>
       <c r="B8" t="s">
@@ -2636,20 +2786,20 @@
       <c r="D8" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="15"/>
-      <c r="J8" s="16" t="s">
+      <c r="I8" s="22"/>
+      <c r="J8" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K8" s="5" t="s">
@@ -2657,7 +2807,7 @@
       </c>
     </row>
     <row r="9" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A9" s="10">
+      <c r="A9" s="20">
         <v>8</v>
       </c>
       <c r="B9" t="s">
@@ -2669,20 +2819,20 @@
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="15"/>
-      <c r="J9" s="16" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="18" t="s">
         <v>46</v>
       </c>
       <c r="K9" s="5" t="s">
@@ -2690,7 +2840,7 @@
       </c>
     </row>
     <row r="10" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A10" s="10">
+      <c r="A10" s="20">
         <v>9</v>
       </c>
       <c r="B10" t="s">
@@ -2702,28 +2852,28 @@
       <c r="D10" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="15"/>
-      <c r="J10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="17" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K10" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A11" s="10">
+    <row r="11" s="10" customFormat="1" ht="42.75" customHeight="1" spans="1:11">
+      <c r="A11" s="20">
         <v>10</v>
       </c>
       <c r="B11" t="s">
@@ -2733,30 +2883,30 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="15"/>
-      <c r="J11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="H11" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="12" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A12" s="10">
+      <c r="A12" s="20">
         <v>11</v>
       </c>
       <c r="B12" t="s">
@@ -2766,30 +2916,30 @@
         <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="14" t="s">
+      <c r="G12" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I12" s="22"/>
+      <c r="J12" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A13" s="10">
+      <c r="A13" s="20">
         <v>12</v>
       </c>
       <c r="B13" t="s">
@@ -2799,30 +2949,30 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="17" t="s">
+      <c r="G13" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="23" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A14" s="10">
+      <c r="A14" s="20">
         <v>13</v>
       </c>
       <c r="B14" t="s">
@@ -2832,30 +2982,30 @@
         <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="15"/>
-      <c r="J14" s="11" t="s">
-        <v>79</v>
+      <c r="G14" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A15" s="10">
+      <c r="A15" s="20">
         <v>14</v>
       </c>
       <c r="B15" t="s">
@@ -2865,24 +3015,24 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H15" s="14"/>
-      <c r="K15" s="18" t="s">
+      <c r="G15" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="K15" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A16" s="10">
+      <c r="A16" s="20">
         <v>15</v>
       </c>
       <c r="B16" t="s">
@@ -2892,29 +3042,29 @@
         <v>23</v>
       </c>
       <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>81</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>79</v>
       </c>
       <c r="K16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A17" s="10">
+      <c r="A17" s="20">
         <v>16</v>
       </c>
       <c r="B17" t="s">
@@ -2924,23 +3074,23 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K17" s="18" t="s">
+      <c r="G17" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A18" s="10">
+      <c r="A18" s="20">
         <v>17</v>
       </c>
       <c r="B18" t="s">
@@ -2950,29 +3100,29 @@
         <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E18" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>79</v>
+      <c r="G18" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="J18" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A19" s="10">
+      <c r="A19" s="20">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -2982,24 +3132,24 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H19" s="14"/>
-      <c r="K19" s="18" t="s">
+      <c r="G19" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="15"/>
+      <c r="K19" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A20" s="10">
+      <c r="A20" s="20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
@@ -3009,29 +3159,29 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>87</v>
-      </c>
-      <c r="E20" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>79</v>
+      <c r="G20" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="J20" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="21" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A21" s="10">
+      <c r="A21" s="20">
         <v>20</v>
       </c>
       <c r="B21" t="s">
@@ -3041,24 +3191,24 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E21" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H21" s="14"/>
-      <c r="K21" s="18" t="s">
+      <c r="G21" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="K21" s="24" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="22" ht="57" customHeight="1" spans="1:11">
-      <c r="A22" s="10">
+      <c r="A22" s="20">
         <v>21</v>
       </c>
       <c r="B22" t="s">
@@ -3068,29 +3218,29 @@
         <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>90</v>
-      </c>
-      <c r="E22" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="J22" s="16" t="s">
+      <c r="G22" s="15" t="s">
         <v>72</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="K22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A23" s="10">
+      <c r="A23" s="20">
         <v>22</v>
       </c>
       <c r="B23" t="s">
@@ -3100,29 +3250,29 @@
         <v>23</v>
       </c>
       <c r="D23" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>79</v>
+      <c r="G23" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="J23" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K23" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A24" s="10">
+      <c r="A24" s="20">
         <v>23</v>
       </c>
       <c r="B24" t="s">
@@ -3132,29 +3282,29 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>94</v>
-      </c>
-      <c r="E24" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E24" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H24" s="14" t="s">
-        <v>95</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>79</v>
+      <c r="G24" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K24" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="25" ht="42.75" customHeight="1" spans="1:11">
-      <c r="A25" s="10">
+      <c r="A25" s="20">
         <v>24</v>
       </c>
       <c r="B25" t="s">
@@ -3164,29 +3314,29 @@
         <v>23</v>
       </c>
       <c r="D25" t="s">
-        <v>96</v>
-      </c>
-      <c r="E25" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F25" s="13" t="s">
+      <c r="F25" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>79</v>
+      <c r="G25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="26" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A26" s="10">
+      <c r="A26" s="20">
         <v>25</v>
       </c>
       <c r="B26" t="s">
@@ -3196,29 +3346,29 @@
         <v>23</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
-      </c>
-      <c r="E26" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="13" t="s">
+      <c r="F26" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>79</v>
+      <c r="G26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="J26" s="21" t="s">
+        <v>81</v>
       </c>
       <c r="K26" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" ht="28.5" customHeight="1" spans="1:11">
-      <c r="A27" s="10">
+      <c r="A27" s="20">
         <v>26</v>
       </c>
       <c r="B27" t="s">
@@ -3228,18 +3378,18 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E27" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="13" t="s">
+      <c r="F27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="K27" s="18" t="s">
+      <c r="G27" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="K27" s="24" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3253,455 +3403,720 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.66666666666667" style="7" customWidth="1"/>
-    <col min="2" max="2" width="9" style="7" customWidth="1"/>
-    <col min="3" max="3" width="19.775" style="7" customWidth="1"/>
-    <col min="4" max="4" width="8.33333333333333" style="7" customWidth="1"/>
-    <col min="5" max="5" width="11.8916666666667" style="7" customWidth="1"/>
-    <col min="6" max="6" width="42.8916666666667" style="7" customWidth="1"/>
-    <col min="7" max="7" width="57.775" style="7" customWidth="1"/>
-    <col min="8" max="8" width="7.66666666666667" style="7" customWidth="1"/>
-    <col min="9" max="9" width="11.6666666666667" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="8.89166666666667" style="7" customWidth="1"/>
+    <col min="1" max="1" width="7.66666666666667" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="9" customWidth="1"/>
+    <col min="4" max="4" width="20.75" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="30" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="6.75" style="9" customWidth="1"/>
+    <col min="9" max="9" width="45" style="9" customWidth="1"/>
+    <col min="10" max="10" width="36.375" style="9" customWidth="1"/>
+    <col min="11" max="13" width="8.89166666666667" style="9" customWidth="1"/>
+    <col min="14" max="16384" width="8.89166666666667" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="7" customFormat="1" spans="1:13">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A2" s="7">
+      <c r="M1" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="71.25" spans="1:13">
+      <c r="A2" s="12">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="C2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="3" ht="14.4" customHeight="1" spans="1:9">
-      <c r="A3" s="7">
+      <c r="J2" s="18"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+    </row>
+    <row r="3" ht="71.25" spans="1:9">
+      <c r="A3" s="12">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="E3" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F3" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" ht="71.25" spans="1:9">
+      <c r="A4" s="12">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="C4" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E4" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="H3" s="5" t="s">
+    </row>
+    <row r="5" ht="71.25" spans="1:9">
+      <c r="A5" s="12">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="4" ht="14.4" customHeight="1" spans="1:9">
-      <c r="A4" s="7">
-        <v>3</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="6" ht="71.25" spans="1:9">
+      <c r="A6" s="12">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="G6" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" ht="71.25" spans="1:10">
+      <c r="A7" s="12">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="C7" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H4" s="5" t="s">
+      <c r="H7" s="16"/>
+      <c r="I7" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" ht="14.4" customHeight="1" spans="1:9">
-      <c r="A5" s="7">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="J7" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" ht="71.25" spans="1:10">
+      <c r="A8" s="12">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="H8" s="16"/>
+      <c r="I8" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" ht="71.25" spans="1:10">
+      <c r="A9" s="12">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="C9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="H9" s="17"/>
+      <c r="I9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" ht="14.4" customHeight="1" spans="1:9">
-      <c r="A6" s="7">
-        <v>5</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C6" s="8" t="s">
+      <c r="J9" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" ht="71.25" spans="1:10">
+      <c r="A10" s="12">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="H10" s="16"/>
+      <c r="I10" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="71.25" spans="1:10">
+      <c r="A11" s="12">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="C11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="H6" s="5" t="s">
+      <c r="H11" s="17"/>
+      <c r="I11" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A7" s="7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C7" s="8" t="s">
+      <c r="J11" s="18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" ht="71.25" spans="1:9">
+      <c r="A12" s="12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E12" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="15" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" ht="71.25" spans="1:9">
+      <c r="A13" s="12">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="C13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" t="s">
         <v>122</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="E13" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="8" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A8" s="7">
-        <v>7</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="7" t="s">
+    <row r="14" ht="71.25" spans="1:9">
+      <c r="A14" s="12">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="C14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="E14" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H14" s="13"/>
+      <c r="I14" s="15" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="9" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A9" s="7">
-        <v>8</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C9" s="8" t="s">
+    <row r="15" ht="99.75" spans="1:10">
+      <c r="A15" s="12">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="E15" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" ht="71.25" spans="1:10">
+      <c r="A16" s="12">
+        <v>15</v>
+      </c>
+      <c r="B16" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="C16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="13" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="10" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A10" s="7">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="E16" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="J16" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" ht="71.25" spans="1:10">
+      <c r="A17" s="12">
+        <v>16</v>
+      </c>
+      <c r="B17" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="C17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="11" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A11" s="7">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="8" t="s">
+      <c r="E17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="J17" s="18" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" ht="71.25" spans="1:10">
+      <c r="A18" s="12">
+        <v>17</v>
+      </c>
+      <c r="B18" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="C18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H11" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A12" s="7">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="E18" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="J18" s="18" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" ht="57" spans="1:9">
+      <c r="A19" s="12">
+        <v>18</v>
+      </c>
+      <c r="B19" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="C19" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="13" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A13" s="7">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="8" t="s">
+      <c r="E19" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="7" t="s">
+    </row>
+    <row r="20" ht="71.25" spans="1:9">
+      <c r="A20" s="12">
+        <v>19</v>
+      </c>
+      <c r="B20" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="8" t="s">
+      <c r="C20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="E20" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I20" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A14" s="7">
-        <v>13</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="21" ht="57" spans="1:9">
+      <c r="A21" s="12">
+        <v>20</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E21" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" ht="71.25" spans="1:9">
+      <c r="A22" s="12">
+        <v>21</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="C22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A15" s="7">
+      <c r="E22" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" ht="57" spans="1:9">
+      <c r="A23" s="12">
+        <v>22</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D15" s="7" t="s">
+      <c r="D23" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" ht="57" spans="1:9">
+      <c r="A24" s="12">
+        <v>23</v>
+      </c>
+      <c r="B24" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" ht="14.4" customHeight="1" spans="1:8">
-      <c r="A16" s="7">
-        <v>15</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="8" t="s">
+      <c r="C24" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>107</v>
+      <c r="E24" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3768,25 +4183,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:9">
@@ -3794,28 +4209,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
@@ -3823,25 +4238,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" t="s">
+        <v>164</v>
+      </c>
+      <c r="H4" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
@@ -3849,25 +4264,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>153</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G5" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="25" customHeight="1" spans="1:8">
@@ -3875,25 +4290,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
@@ -3901,25 +4316,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="G7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
@@ -3927,25 +4342,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
@@ -3953,25 +4368,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="G9" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" ht="25" customHeight="1" spans="1:8">
@@ -3979,25 +4394,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="G10" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" ht="25" customHeight="1" spans="1:8">
@@ -4005,25 +4420,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" ht="25" customHeight="1" spans="1:8">
@@ -4031,25 +4446,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G12" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="25" customHeight="1" spans="1:8">
@@ -4057,25 +4472,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G13" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4142,25 +4557,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" ht="25" customHeight="1" spans="1:8">
@@ -4168,25 +4583,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:8">
@@ -4194,25 +4609,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" ht="25" customHeight="1" spans="1:8">
@@ -4220,25 +4635,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>105</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:8">
@@ -4246,25 +4661,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G6" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" ht="25" customHeight="1" spans="1:8">
@@ -4272,25 +4687,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="G7" t="s">
-        <v>122</v>
+        <v>207</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="25" customHeight="1" spans="1:8">
@@ -4298,25 +4713,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" ht="25" customHeight="1" spans="1:8">
@@ -4324,25 +4739,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>196</v>
-      </c>
       <c r="F9" s="6" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="G9" t="s">
-        <v>141</v>
+        <v>213</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>107</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4443,25 +4858,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="D2" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E2" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H2" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" ht="15.6" customHeight="1" spans="1:9">
@@ -4469,25 +4884,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E3" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="G3" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H3" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I3" s="2"/>
     </row>
@@ -4496,25 +4911,25 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H4" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -4523,25 +4938,25 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="G5" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H5" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I5" s="2"/>
     </row>
@@ -4550,25 +4965,25 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="G6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="H6" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="I6" s="2"/>
     </row>
@@ -4577,25 +4992,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="C7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>104</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I7" s="2"/>
     </row>
@@ -4604,25 +5019,25 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C8" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="D8" t="s">
         <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="F8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" t="s">
+        <v>155</v>
+      </c>
+      <c r="H8" t="s">
         <v>220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>112</v>
-      </c>
-      <c r="H8" t="s">
-        <v>211</v>
       </c>
       <c r="I8" s="2"/>
     </row>
@@ -4631,25 +5046,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="C9" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="D9" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="F9" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="G9" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H9" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I9" s="2"/>
     </row>
@@ -4658,25 +5073,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D10" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E10" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="F10" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="G10" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H10" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I10" s="2"/>
     </row>
@@ -4685,25 +5100,25 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="D11" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G11" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H11" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I11" s="2"/>
     </row>
@@ -4712,25 +5127,25 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>237</v>
       </c>
       <c r="C12" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>239</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>240</v>
       </c>
       <c r="G12" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H12" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="I12" s="2"/>
     </row>
@@ -4739,25 +5154,25 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C13" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D13" t="s">
         <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F13" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G13" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="H13" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26505" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Session" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Auth" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Members" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Coupons" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Payments" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Points" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="未覆盖的测试用例" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="main_stream" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Session" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Auth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Members" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Coupons" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Payments" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Points" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="未覆盖的测试用例" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="main_stream" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="144525" fullCalcOnLoad="1"/>
@@ -698,7 +698,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -779,6 +779,9 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1601,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -1739,7 +1742,7 @@
 "field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="K2" s="27" t="inlineStr"/>
+      <c r="K2" s="34" t="inlineStr"/>
     </row>
     <row r="3" ht="28.5" customHeight="1">
       <c r="A3" s="24" t="n">
@@ -1782,7 +1785,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K3" s="27" t="inlineStr"/>
+      <c r="K3" s="34" t="inlineStr"/>
     </row>
     <row r="4" ht="42.75" customHeight="1">
       <c r="A4" s="24" t="n">
@@ -1831,7 +1834,7 @@
 "field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="K4" s="27" t="inlineStr"/>
+      <c r="K4" s="34" t="inlineStr"/>
     </row>
     <row r="5" ht="28.5" customHeight="1">
       <c r="A5" s="24" t="n">
@@ -1873,7 +1876,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K5" s="27" t="inlineStr"/>
+      <c r="K5" s="34" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="24" t="n">
@@ -1914,22 +1917,22 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K6" s="27" t="inlineStr"/>
+      <c r="K6" s="34" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="K7" s="32" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="K8" s="32" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="F9" s="26" t="n"/>
       <c r="G9" s="26" t="n"/>
-      <c r="K9" s="27" t="inlineStr"/>
+      <c r="K9" s="34" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B1" display="interface" r:id="rId1"/>
+    <hyperlink ref="B1" display="interface" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" paperSize="9"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="26505" windowHeight="15480" tabRatio="936" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28200" windowHeight="16500" tabRatio="936" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Session" sheetId="1" state="visible" r:id="rId1"/>
@@ -23,7 +23,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="31">
+  <fonts count="33">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -66,7 +66,7 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF006400"/>
+      <color rgb="FF800080"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -79,14 +79,64 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006400"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <color rgb="FF008000"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <i val="1"/>
+      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color theme="0"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -100,85 +150,10 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
       <charset val="134"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -194,13 +169,45 @@
       <charset val="134"/>
       <b val="1"/>
       <color theme="3"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="18"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="15"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <color theme="3"/>
       <sz val="13"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="0"/>
-      <color rgb="FF006100"/>
+      <b val="1"/>
+      <color rgb="FFFA7D00"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -228,13 +235,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="等线"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <color rgb="00000000"/>
     </font>
     <font>
-      <color rgb="00800080"/>
-    </font>
-    <font>
-      <color rgb="00006400"/>
+      <color rgb="00008000"/>
     </font>
   </fonts>
   <fills count="33">
@@ -246,19 +264,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,13 +276,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,25 +306,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,6 +342,90 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -336,97 +438,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,24 +486,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -512,6 +512,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -556,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -568,10 +586,10 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
@@ -580,125 +598,125 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="4" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="2" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -741,14 +759,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -762,25 +777,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1101,15 +1117,15 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col width="7.66666666666667" customWidth="1" style="19" min="1" max="1"/>
     <col width="12.75" customWidth="1" style="19" min="2" max="2"/>
-    <col width="9.25" customWidth="1" style="25" min="3" max="3"/>
+    <col width="9.25" customWidth="1" style="24" min="3" max="3"/>
     <col width="39.125" customWidth="1" min="4" max="4"/>
     <col width="8.33333333333333" customWidth="1" min="5" max="5"/>
     <col width="45" customWidth="1" min="6" max="6"/>
@@ -1197,7 +1213,7 @@
           <t>getSession</t>
         </is>
       </c>
-      <c r="C2" s="25" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
@@ -1235,7 +1251,7 @@
 "field_2":"sessionExpiry"}</t>
         </is>
       </c>
-      <c r="K2" s="31" t="inlineStr">
+      <c r="K2" s="32" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1250,7 +1266,7 @@
           <t>getSession</t>
         </is>
       </c>
-      <c r="C3" s="25" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
@@ -1284,7 +1300,7 @@
 "field_2":"sessionExpiry"}</t>
         </is>
       </c>
-      <c r="K3" s="31" t="inlineStr">
+      <c r="K3" s="32" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1299,7 +1315,7 @@
           <t>getSession</t>
         </is>
       </c>
-      <c r="C4" s="25" t="inlineStr">
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
@@ -1331,7 +1347,7 @@
           <t>{"code":401}</t>
         </is>
       </c>
-      <c r="K4" s="31" t="inlineStr">
+      <c r="K4" s="32" t="inlineStr">
         <is>
           <t>Pass</t>
         </is>
@@ -1346,9 +1362,9 @@
           <t>getSession</t>
         </is>
       </c>
-      <c r="C5" s="25" t="inlineStr">
-        <is>
-          <t>skip</t>
+      <c r="C5" s="24" t="inlineStr">
+        <is>
+          <t>abnormal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1377,9 +1393,9 @@
           <t>{"code":401}</t>
         </is>
       </c>
-      <c r="K5" s="30" t="inlineStr">
-        <is>
-          <t>Skip</t>
+      <c r="K5" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1408,7 @@
           <t>deleteSession</t>
         </is>
       </c>
-      <c r="C6" s="25" t="inlineStr">
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
@@ -1424,7 +1440,11 @@
           <t>{"code":204}</t>
         </is>
       </c>
-      <c r="K6" s="29" t="inlineStr"/>
+      <c r="K6" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
       <c r="A7" s="19" t="n">
@@ -1435,7 +1455,7 @@
           <t>deleteSession</t>
         </is>
       </c>
-      <c r="C7" s="25" t="inlineStr">
+      <c r="C7" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
@@ -1464,10 +1484,14 @@
       <c r="H7" s="15" t="n"/>
       <c r="J7" s="15" t="inlineStr">
         <is>
-          <t>{"code":404}</t>
-        </is>
-      </c>
-      <c r="K7" s="29" t="inlineStr"/>
+          <t>{"code":405}</t>
+        </is>
+      </c>
+      <c r="K7" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="8" ht="28.5" customHeight="1">
       <c r="A8" s="19" t="n">
@@ -1478,7 +1502,7 @@
           <t>deleteSession</t>
         </is>
       </c>
-      <c r="C8" s="25" t="inlineStr">
+      <c r="C8" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
@@ -1495,7 +1519,7 @@
       </c>
       <c r="F8" s="5" t="inlineStr">
         <is>
-          <t>vNext2/api/#version#/session/#errorSeesionId#/</t>
+          <t>vNext2/api/#version#/session/#errorSessionId#/</t>
         </is>
       </c>
       <c r="G8" s="15" t="inlineStr">
@@ -1510,7 +1534,11 @@
           <t>{"code":404}</t>
         </is>
       </c>
-      <c r="K8" s="29" t="inlineStr"/>
+      <c r="K8" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="28.5" customHeight="1">
       <c r="A9" s="19" t="n">
@@ -1521,7 +1549,7 @@
           <t>deleteSession</t>
         </is>
       </c>
-      <c r="C9" s="25" t="inlineStr">
+      <c r="C9" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
@@ -1553,7 +1581,11 @@
           <t>{"code":401}</t>
         </is>
       </c>
-      <c r="K9" s="29" t="inlineStr"/>
+      <c r="K9" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="19" t="n">
@@ -1564,7 +1596,7 @@
           <t>deleteSession</t>
         </is>
       </c>
-      <c r="C10" s="25" t="inlineStr">
+      <c r="C10" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
@@ -1595,7 +1627,11 @@
           <t>{"code":401}</t>
         </is>
       </c>
-      <c r="K10" s="29" t="inlineStr"/>
+      <c r="K10" s="32" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1617,49 +1653,49 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.883333333333329" defaultRowHeight="14.25"/>
   <cols>
-    <col width="8.883333333333329" customWidth="1" style="24" min="1" max="3"/>
-    <col width="16.8833333333333" customWidth="1" style="24" min="4" max="4"/>
-    <col width="7.5" customWidth="1" style="24" min="5" max="5"/>
-    <col width="25.375" customWidth="1" style="24" min="6" max="7"/>
-    <col width="32.75" customWidth="1" style="24" min="8" max="8"/>
-    <col width="5.125" customWidth="1" style="24" min="9" max="9"/>
-    <col width="54" customWidth="1" style="24" min="10" max="10"/>
-    <col width="8.883333333333329" customWidth="1" style="24" min="11" max="12"/>
+    <col width="8.883333333333329" customWidth="1" style="23" min="1" max="3"/>
+    <col width="16.8833333333333" customWidth="1" style="23" min="4" max="4"/>
+    <col width="7.5" customWidth="1" style="23" min="5" max="5"/>
+    <col width="25.375" customWidth="1" style="23" min="6" max="7"/>
+    <col width="32.75" customWidth="1" style="23" min="8" max="8"/>
+    <col width="5.125" customWidth="1" style="23" min="9" max="9"/>
+    <col width="54" customWidth="1" style="23" min="10" max="10"/>
+    <col width="8.883333333333329" customWidth="1" style="23" min="11" max="12"/>
     <col width="8.883333333333329" customWidth="1" style="10" min="13" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="1" s="23">
-      <c r="A1" s="23" t="inlineStr">
+    <row r="1" customFormat="1" s="22">
+      <c r="A1" s="22" t="inlineStr">
         <is>
           <t>case_id</t>
         </is>
       </c>
-      <c r="B1" s="23" t="inlineStr">
+      <c r="B1" s="22" t="inlineStr">
         <is>
           <t>interface</t>
         </is>
       </c>
-      <c r="C1" s="23" t="inlineStr">
+      <c r="C1" s="22" t="inlineStr">
         <is>
           <t>flow</t>
         </is>
       </c>
-      <c r="D1" s="23" t="inlineStr">
+      <c r="D1" s="22" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="23" t="inlineStr">
+      <c r="E1" s="22" t="inlineStr">
         <is>
           <t>method</t>
         </is>
       </c>
-      <c r="F1" s="23" t="inlineStr">
+      <c r="F1" s="22" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="G1" s="23" t="inlineStr">
+      <c r="G1" s="22" t="inlineStr">
         <is>
           <t>headers</t>
         </is>
@@ -1669,17 +1705,17 @@
           <t>params</t>
         </is>
       </c>
-      <c r="I1" s="23" t="inlineStr">
+      <c r="I1" s="22" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="J1" s="23" t="inlineStr">
+      <c r="J1" s="22" t="inlineStr">
         <is>
           <t>expected</t>
         </is>
       </c>
-      <c r="K1" s="23" t="inlineStr">
+      <c r="K1" s="22" t="inlineStr">
         <is>
           <t>result</t>
         </is>
@@ -1696,30 +1732,30 @@
       </c>
     </row>
     <row r="2" ht="42.75" customHeight="1">
-      <c r="A2" s="24" t="n">
+      <c r="A2" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="inlineStr">
+      <c r="B2" s="23" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
       </c>
-      <c r="C2" s="25" t="inlineStr">
+      <c r="C2" s="24" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D2" s="26" t="inlineStr">
+      <c r="D2" s="25" t="inlineStr">
         <is>
           <t>成功获取Token</t>
         </is>
       </c>
-      <c r="E2" s="24" t="inlineStr">
+      <c r="E2" s="23" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F2" s="26" t="inlineStr">
+      <c r="F2" s="25" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1742,33 +1778,37 @@
 "field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="K2" s="34" t="inlineStr"/>
+      <c r="K2" s="26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="24" t="n">
+      <c r="A3" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="inlineStr">
+      <c r="B3" s="23" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
       </c>
-      <c r="C3" s="25" t="inlineStr">
+      <c r="C3" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D3" s="26" t="inlineStr">
+      <c r="D3" s="25" t="inlineStr">
         <is>
           <t>不传User id</t>
         </is>
       </c>
-      <c r="E3" s="24" t="inlineStr">
+      <c r="E3" s="23" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F3" s="26" t="inlineStr">
+      <c r="F3" s="25" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1785,33 +1825,37 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K3" s="34" t="inlineStr"/>
+      <c r="K3" s="27" t="inlineStr">
+        <is>
+          <t>Fail</t>
+        </is>
+      </c>
     </row>
     <row r="4" ht="42.75" customHeight="1">
-      <c r="A4" s="24" t="n">
+      <c r="A4" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="inlineStr">
+      <c r="B4" s="23" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
       </c>
-      <c r="C4" s="25" t="inlineStr">
+      <c r="C4" s="24" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="D4" s="26" t="inlineStr">
+      <c r="D4" s="25" t="inlineStr">
         <is>
           <t>不存在的User id</t>
         </is>
       </c>
-      <c r="E4" s="24" t="inlineStr">
+      <c r="E4" s="23" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F4" s="26" t="inlineStr">
+      <c r="F4" s="25" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1834,33 +1878,37 @@
 "field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="K4" s="34" t="inlineStr"/>
+      <c r="K4" s="26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="5" ht="28.5" customHeight="1">
-      <c r="A5" s="24" t="n">
+      <c r="A5" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="inlineStr">
+      <c r="B5" s="23" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
       </c>
-      <c r="C5" s="25" t="inlineStr">
+      <c r="C5" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D5" s="26" t="inlineStr">
+      <c r="D5" s="25" t="inlineStr">
         <is>
           <t>错误的Akey</t>
         </is>
       </c>
-      <c r="E5" s="24" t="inlineStr">
+      <c r="E5" s="23" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F5" s="26" t="inlineStr">
+      <c r="F5" s="25" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1876,33 +1924,37 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K5" s="34" t="inlineStr"/>
+      <c r="K5" s="26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="24" t="n">
+      <c r="A6" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="24" t="inlineStr">
+      <c r="B6" s="23" t="inlineStr">
         <is>
           <t>Auth</t>
         </is>
       </c>
-      <c r="C6" s="25" t="inlineStr">
+      <c r="C6" s="24" t="inlineStr">
         <is>
           <t>abnormal</t>
         </is>
       </c>
-      <c r="D6" s="26" t="inlineStr">
+      <c r="D6" s="25" t="inlineStr">
         <is>
           <t>缺少AKey</t>
         </is>
       </c>
-      <c r="E6" s="24" t="inlineStr">
+      <c r="E6" s="23" t="inlineStr">
         <is>
           <t>GET</t>
         </is>
       </c>
-      <c r="F6" s="26" t="inlineStr">
+      <c r="F6" s="25" t="inlineStr">
         <is>
           <t>vNext2/api/#version#/login/</t>
         </is>
@@ -1917,18 +1969,22 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K6" s="34" t="inlineStr"/>
+      <c r="K6" s="26" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="K7" s="32" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="K8" s="32" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="F9" s="26" t="n"/>
-      <c r="G9" s="26" t="n"/>
-      <c r="K9" s="34" t="inlineStr"/>
+      <c r="F9" s="25" t="n"/>
+      <c r="G9" s="25" t="n"/>
+      <c r="K9" s="28" t="inlineStr"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2196,7 +2252,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K4" s="22" t="inlineStr">
+      <c r="K4" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -2745,7 +2801,7 @@
         </is>
       </c>
       <c r="H15" s="15" t="n"/>
-      <c r="K15" s="22" t="inlineStr">
+      <c r="K15" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -2831,7 +2887,7 @@
           <t>{"AKey":"#AKey#","Host":"#Host#","Session":"#sessionId#"}</t>
         </is>
       </c>
-      <c r="K17" s="22" t="inlineStr">
+      <c r="K17" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -2918,7 +2974,7 @@
         </is>
       </c>
       <c r="H19" s="15" t="n"/>
-      <c r="K19" s="22" t="inlineStr">
+      <c r="K19" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3005,7 +3061,7 @@
         </is>
       </c>
       <c r="H21" s="15" t="n"/>
-      <c r="K21" s="22" t="inlineStr">
+      <c r="K21" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3275,7 +3331,7 @@
           <t>{"AKey":"#AKey#","Host":"#Host#","Session":"#sessionId#"}</t>
         </is>
       </c>
-      <c r="K27" s="22" t="inlineStr">
+      <c r="K27" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3295,10 +3351,10 @@
   </sheetPr>
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="8.891666666666669" defaultRowHeight="14.25"/>
@@ -3437,7 +3493,7 @@
 "couponCategory": "Item"}</t>
         </is>
       </c>
-      <c r="K2" s="29" t="inlineStr"/>
+      <c r="K2" s="15" t="inlineStr"/>
       <c r="L2" s="13" t="n"/>
       <c r="M2" s="13" t="n"/>
     </row>
@@ -3487,7 +3543,7 @@
 "employeeID": "1"}</t>
         </is>
       </c>
-      <c r="K3" s="33" t="inlineStr">
+      <c r="K3" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3539,7 +3595,7 @@
 "employeeID": "1"}</t>
         </is>
       </c>
-      <c r="K4" s="33" t="inlineStr">
+      <c r="K4" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3598,7 +3654,7 @@
 "couponCategory": "Item"}</t>
         </is>
       </c>
-      <c r="K5" s="33" t="inlineStr">
+      <c r="K5" s="18" t="inlineStr">
         <is>
           <t>Skip</t>
         </is>
@@ -3655,7 +3711,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K6" s="32" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
     </row>
     <row r="7" ht="71.25" customHeight="1">
       <c r="A7" s="12" t="n">
@@ -3708,7 +3764,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K7" s="32" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
     </row>
     <row r="8" ht="71.25" customHeight="1">
       <c r="A8" s="12" t="n">
@@ -3761,7 +3817,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K8" s="32" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
     </row>
     <row r="9" ht="71.25" customHeight="1">
       <c r="A9" s="12" t="n">
@@ -3813,7 +3869,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K9" s="32" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
     </row>
     <row r="10" ht="71.25" customHeight="1">
       <c r="A10" s="12" t="n">
@@ -3866,7 +3922,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K10" s="32" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
     </row>
     <row r="11" ht="71.25" customHeight="1">
       <c r="A11" s="12" t="n">
@@ -3918,7 +3974,7 @@
           <t>{"code": 404}</t>
         </is>
       </c>
-      <c r="K11" s="32" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
     </row>
     <row r="12" ht="71.25" customHeight="1">
       <c r="A12" s="12" t="n">
@@ -3965,7 +4021,7 @@
 "employeeID": "1"}</t>
         </is>
       </c>
-      <c r="K12" s="32" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
     </row>
     <row r="13" ht="71.25" customHeight="1">
       <c r="A13" s="12" t="n">
@@ -4018,7 +4074,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K13" s="32" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
     </row>
     <row r="14" ht="71.25" customHeight="1">
       <c r="A14" s="12" t="n">
@@ -4071,7 +4127,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K14" s="32" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
     </row>
     <row r="15" ht="99.75" customHeight="1">
       <c r="A15" s="12" t="n">
@@ -4127,7 +4183,7 @@
 "description":"The provided Membership Card number was not found in the system. Please check the Membership Card number and try your request again."}</t>
         </is>
       </c>
-      <c r="K15" s="32" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
     </row>
     <row r="16" ht="71.25" customHeight="1">
       <c r="A16" s="12" t="n">
@@ -4183,7 +4239,7 @@
 "description":"Coupon has already expired."}</t>
         </is>
       </c>
-      <c r="K16" s="32" t="inlineStr"/>
+      <c r="K16" s="5" t="inlineStr"/>
     </row>
     <row r="17" ht="71.25" customHeight="1">
       <c r="A17" s="12" t="n">
@@ -4239,7 +4295,7 @@
 "description":"Coupon is already used."}</t>
         </is>
       </c>
-      <c r="K17" s="32" t="inlineStr"/>
+      <c r="K17" s="5" t="inlineStr"/>
     </row>
     <row r="18" ht="71.25" customHeight="1">
       <c r="A18" s="12" t="n">
@@ -4294,7 +4350,7 @@
 "description":"Coupon Serial Number Can't Empty!"}</t>
         </is>
       </c>
-      <c r="K18" s="32" t="inlineStr"/>
+      <c r="K18" s="5" t="inlineStr"/>
     </row>
     <row r="19" ht="85.5" customHeight="1">
       <c r="A19" s="12" t="n">
@@ -4348,7 +4404,7 @@
 "description":"The provided Property was not found in the system. Please check the Property and try your request again."}</t>
         </is>
       </c>
-      <c r="K19" s="32" t="inlineStr"/>
+      <c r="K19" s="5" t="inlineStr"/>
     </row>
     <row r="20" ht="85.5" customHeight="1">
       <c r="A20" s="12" t="n">
@@ -4403,7 +4459,7 @@
 "description":"The provided Property was not found in the system. Please check the Property and try your request again."}</t>
         </is>
       </c>
-      <c r="K20" s="32" t="inlineStr"/>
+      <c r="K20" s="5" t="inlineStr"/>
     </row>
     <row r="21" ht="85.5" customHeight="1">
       <c r="A21" s="12" t="n">
@@ -4457,7 +4513,7 @@
 "description":"The provided Facility was not found in the system. Please check the Facility and try your request again."}</t>
         </is>
       </c>
-      <c r="K21" s="32" t="inlineStr"/>
+      <c r="K21" s="5" t="inlineStr"/>
     </row>
     <row r="22" ht="85.5" customHeight="1">
       <c r="A22" s="12" t="n">
@@ -4512,7 +4568,7 @@
 "description":"The provided Facility was not found in the system. Please check the Facility and try your request again."}</t>
         </is>
       </c>
-      <c r="K22" s="32" t="inlineStr"/>
+      <c r="K22" s="5" t="inlineStr"/>
     </row>
     <row r="23" ht="71.25" customHeight="1">
       <c r="A23" s="12" t="n">
@@ -4567,7 +4623,7 @@
 "description":"Coupon cannot be used at this facility."}</t>
         </is>
       </c>
-      <c r="K23" s="32" t="inlineStr"/>
+      <c r="K23" s="5" t="inlineStr"/>
     </row>
     <row r="24" ht="57" customHeight="1">
       <c r="A24" s="12" t="n">
@@ -4620,7 +4676,7 @@
 "couponCategory": "Item"}</t>
         </is>
       </c>
-      <c r="K24" s="32" t="inlineStr"/>
+      <c r="K24" s="5" t="inlineStr"/>
     </row>
     <row r="25" ht="57" customHeight="1">
       <c r="A25" s="12" t="n">
@@ -4673,7 +4729,7 @@
 "couponCategory": "Item"}</t>
         </is>
       </c>
-      <c r="K25" s="32" t="inlineStr"/>
+      <c r="K25" s="5" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="B26" s="13" t="inlineStr">
@@ -4681,7 +4737,7 @@
           <t>redeemCoupons</t>
         </is>
       </c>
-      <c r="K26" s="32" t="inlineStr"/>
+      <c r="K26" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -1901,11 +1901,7 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K5" s="30" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K5" s="26" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="22" t="n">

--- a/data/LPS_testcases.xlsx
+++ b/data/LPS_testcases.xlsx
@@ -1755,11 +1755,7 @@
 "field_2": "accessTokenExpiry"}</t>
         </is>
       </c>
-      <c r="K2" s="30" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
-      </c>
+      <c r="K2" s="26" t="inlineStr"/>
     </row>
     <row r="3" ht="28.5" customHeight="1">
       <c r="A3" s="22" t="n">
@@ -1901,7 +1897,11 @@
           <t>{"code": 401}</t>
         </is>
       </c>
-      <c r="K5" s="26" t="inlineStr"/>
+      <c r="K5" s="30" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="22" t="n">
